--- a/CO2.xlsx
+++ b/CO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v.chapin/Library/CloudStorage/Dropbox/HappyFew_1.0Go/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182474FF-2654-6C42-8399-7973B458A444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B103ED-B980-6545-8A78-601602E2433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="28" r:id="rId1"/>
@@ -26,61 +26,6 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Bilan CO2'!$A$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Bilan CO2'!$A$5:$D$5</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Bilan CO2'!$E$9</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Bilan CO2'!$A$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Bilan CO2'!$A$5:$D$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Bilan CO2'!$A$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Bilan CO2'!$A$7:$D$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Bilan CO2'!$A$8:$D$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Bilan CO2'!$A$9:$D$9</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Bilan CO2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Bilan CO2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Bilan CO2'!$E$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Bilan CO2'!$A$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Bilan CO2'!$E$8</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Bilan CO2'!$E$9</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Bilan CO2'!$A$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Bilan CO2'!$A$5:$D$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Bilan CO2'!$A$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Bilan CO2'!$A$7:$D$7</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Bilan CO2'!$A$8:$D$8</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Bilan CO2'!$A$9:$D$9</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Bilan CO2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Bilan CO2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Bilan CO2'!$A$7:$D$7</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Bilan CO2'!$E$7</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Bilan CO2'!$E$8</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Bilan CO2'!$E$9</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Bilan CO2'!$A$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Bilan CO2'!$A$5:$D$5</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Bilan CO2'!$A$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Bilan CO2'!$A$7:$D$7</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Bilan CO2'!$A$8:$D$8</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Bilan CO2'!$A$9:$D$9</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Bilan CO2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Bilan CO2'!$A$8:$D$8</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Bilan CO2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Bilan CO2'!$E$7</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Bilan CO2'!$E$8</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Bilan CO2'!$E$9</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Bilan CO2'!$A$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Bilan CO2'!$A$5:$D$5</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Bilan CO2'!$A$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Bilan CO2'!$A$7:$D$7</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Bilan CO2'!$A$8:$D$8</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Bilan CO2'!$A$9:$D$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Bilan CO2'!$A$9:$D$9</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Bilan CO2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Bilan CO2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Bilan CO2'!$E$7</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'Bilan CO2'!$E$8</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'Bilan CO2'!$E$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Bilan CO2'!$E$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Bilan CO2'!$E$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Bilan CO2'!$E$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Bilan CO2'!$E$8</definedName>
     <definedName name="a">[1]NACA6!$I$62</definedName>
     <definedName name="a1_">'[1]2013'!$B$38</definedName>
     <definedName name="a2_">'[1]2013'!$B$39</definedName>
@@ -152,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{C13D6839-F2DE-5F4C-9E84-1381B994CE26}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{3C53B9A9-FC37-DA46-B523-6F69F89FE5FA}">
       <text>
         <r>
           <rPr>
@@ -172,6 +117,16 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : durée de vie = 200 000 km
 </t>
         </r>
         <r>
@@ -224,6 +179,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
@@ -238,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{D74586E2-78FF-1A49-AA51-22683FBD5364}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{A2B0B970-8A53-204E-B2F2-2A1B8B9458FA}">
       <text>
         <r>
           <rPr>
@@ -267,7 +232,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 9 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 6 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -281,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{39556D7F-2053-EE4A-BE2C-8BDC05E66B2F}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{FD8157B7-0AAF-4642-9E5A-9CC5F2CC31ED}">
       <text>
         <r>
           <rPr>
@@ -310,7 +285,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1  VI électrique = 1 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie VI = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 VI = 2 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -324,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{703E65D1-8321-9943-852E-A1DE2B623ADA}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{E70612DB-6108-634E-856E-A98912A74F72}">
       <text>
         <r>
           <rPr>
@@ -353,7 +338,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1  VAE électrique = 0.3 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie VAE = 100 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 VAE = 0.2 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -744,7 +739,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{A7100A02-8BCE-194A-9997-111BF0ED9632}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{0B12B0FB-7741-A14D-93EB-00969877069C}">
       <text>
         <r>
           <rPr>
@@ -773,6 +768,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Hypothèse : durée de vie = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : 1 voiture thermique = 6 TCO2/fabrication
 </t>
         </r>
@@ -787,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{218F7055-4391-A74D-98CC-41C78AF3E149}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{C26CB1FA-C6B2-0748-8548-16F67A9EFA6B}">
       <text>
         <r>
           <rPr>
@@ -816,6 +821,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
@@ -830,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{D7ABABD9-2F65-8747-8455-C210EFB601EA}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{72B39A8C-8DA4-E048-8983-D49D368E4A2C}">
       <text>
         <r>
           <rPr>
@@ -859,7 +874,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 9 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 6 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -873,7 +898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{7A050EC0-9987-6F4A-B536-596AB9186894}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{2F4F052C-8B93-8744-80C1-424D95AA3646}">
       <text>
         <r>
           <rPr>
@@ -902,7 +927,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1  VI électrique = 1 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie VI = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 VI = 2 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -916,7 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{A22A0062-CC9E-AF47-80B0-4C000D344365}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{859FF2D0-8B3E-DD4C-B221-59816F57B17D}">
       <text>
         <r>
           <rPr>
@@ -945,7 +980,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1  VAE électrique = 0.3 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie VAE = 100 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 VAE = 0.2 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -1336,7 +1381,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{1D24AF84-9305-B94B-8B83-B045071DE078}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{B0E53B6E-364C-FA4A-A06D-46905BA0FB5A}">
       <text>
         <r>
           <rPr>
@@ -1365,6 +1410,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Hypothèse : durée de vie = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : 1 voiture thermique = 6 TCO2/fabrication
 </t>
         </r>
@@ -1379,7 +1434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{3EF77D5A-90E0-6F46-98FE-E2823C2445D5}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{D7F7B894-C136-C644-AC58-2B28B17D4D97}">
       <text>
         <r>
           <rPr>
@@ -1408,6 +1463,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
@@ -1422,7 +1487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{A0113C0D-EF1C-BC48-80BF-66B008B109E9}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{F7568BC5-8668-8948-90CF-4ACB42EA2586}">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1516,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 9 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 6 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -1465,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{32810CA0-0FC0-9B41-8E8E-6AD081839AAD}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{233DC70E-0554-7F43-AEE8-65C509057251}">
       <text>
         <r>
           <rPr>
@@ -1494,7 +1569,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1  VI électrique = 1 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie VI = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 VI = 2 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -1508,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{59258A75-7074-CF4C-B6ED-9E34EDB186B8}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{52158F4F-B71B-7D4B-A03C-382EDAA6BEA5}">
       <text>
         <r>
           <rPr>
@@ -1537,7 +1622,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1  VAE électrique = 0.3 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie VAE = 100 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 VAE = 0.2 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -1928,7 +2023,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{F40C1C06-7B5C-6A4C-88E1-D820D6D093D2}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{8D4BB45F-A983-0745-8229-24719932D1F1}">
       <text>
         <r>
           <rPr>
@@ -1957,6 +2052,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Hypothèse : durée de vie = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : 1 voiture thermique = 6 TCO2/fabrication
 </t>
         </r>
@@ -1971,7 +2076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{B8066345-3419-5C4C-987E-EBABCC3618A7}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{32A5BB09-6E43-804A-8A98-33B1D3A1AF5B}">
       <text>
         <r>
           <rPr>
@@ -2000,6 +2105,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
@@ -2014,7 +2129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{50513523-D2A3-7D4E-BA72-01FB4393B02E}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{EB46069F-113B-CF46-8E29-4B0FB9F98403}">
       <text>
         <r>
           <rPr>
@@ -2043,7 +2158,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 9 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 6 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -2057,7 +2182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{745A528B-4116-DB4A-9A1F-4A2CDD295852}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{42CD3604-9992-EB4E-BFAE-24318174C5D8}">
       <text>
         <r>
           <rPr>
@@ -2086,7 +2211,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1  VI électrique = 1 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie VI = 200 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 VI = 2 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -2100,7 +2235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{FC9224AE-6946-F44C-954B-4347C2681471}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{55D51385-812A-2E4F-A3E0-BDF9E1E6D13B}">
       <text>
         <r>
           <rPr>
@@ -2129,7 +2264,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1  VAE électrique = 0.3 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : durée de vie VAE = 100 000 km
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hypothèse : 1 VAE = 0.2 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -2612,7 +2757,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="102">
   <si>
     <t>TCO2/an</t>
   </si>
@@ -2812,9 +2957,6 @@
   </si>
   <si>
     <t>Proposition pour le BE Bilan CO2 simplifié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilan CO2 </t>
   </si>
   <si>
     <t>Total</t>
@@ -3102,6 +3244,9 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t xml:space="preserve">Emissions CO2 </t>
+  </si>
 </sst>
 </file>
 
@@ -3110,7 +3255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3130,14 +3275,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4847,200 +4984,197 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1360" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1360" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1360" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1360" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="38" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1360" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1360" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1361">
@@ -6537,6 +6671,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F8C6-6049-B48B-A7FBDC90689B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6556,6 +6695,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F8C6-6049-B48B-A7FBDC90689B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6575,6 +6719,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F8C6-6049-B48B-A7FBDC90689B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6594,6 +6743,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F8C6-6049-B48B-A7FBDC90689B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6613,6 +6767,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F8C6-6049-B48B-A7FBDC90689B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6715,19 +6874,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.51098067354404619</c:v>
+                  <c:v>0.51205685412644286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4702104384035379E-2</c:v>
+                  <c:v>2.4647742677566448E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25846635220495684</c:v>
+                  <c:v>0.25789754754960353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10292543493348076</c:v>
+                  <c:v>0.10269892782319354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10292543493348076</c:v>
+                  <c:v>0.10269892782319354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7079,16 +7238,16 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19.431542857142858</c:v>
+                  <c:v>19.474399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9942588840722824</c:v>
+                  <c:v>14.966601741215138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4986822940340256</c:v>
+                  <c:v>12.415025151176883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2919406112829792</c:v>
+                  <c:v>11.230683468425836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7524,16 +7683,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.9291428571428568</c:v>
+                  <c:v>9.9719999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9996571428571428</c:v>
+                  <c:v>9.9719999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0556571428571428</c:v>
+                  <c:v>9.9719999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0332571428571429</c:v>
+                  <c:v>9.9719999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,7 +7752,7 @@
             <c:numRef>
               <c:f>'Bilan CO2'!$A$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.48</c:v>
@@ -7665,7 +7824,7 @@
             <c:numRef>
               <c:f>'Bilan CO2'!$A$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.0223999999999993</c:v>
@@ -7737,7 +7896,7 @@
             <c:numRef>
               <c:f>'Bilan CO2'!$A$8:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
@@ -7809,7 +7968,7 @@
             <c:numRef>
               <c:f>'Bilan CO2'!$A$9:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
@@ -8335,13 +8494,13 @@
                   <c:v>43800.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10710.4</c:v>
+                  <c:v>41300.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4910.3999999999996</c:v>
+                  <c:v>41300.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2180.4</c:v>
+                  <c:v>38850.400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11300,8 +11459,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11786,7 +11945,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A5" sqref="A5:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11801,163 +11960,164 @@
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>2023</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <f>C6/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>C6/100*30*10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>E6*20000</f>
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <f>C7/100*3*0.8*3/1000</f>
         <v>2.88</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <f>C7/100*3*10</f>
         <v>12000</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>E7*20000</f>
         <v>40000</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="19">
+      <c r="D7" s="11"/>
+      <c r="E7" s="18">
         <v>2</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <f>C8/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>C8/100*30*10</f>
         <v>0</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>E8*2000</f>
         <v>0</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20">
+      <c r="D8" s="11"/>
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <f>C9/100*3*0.8*3/1000</f>
         <v>0.432</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f>C9/100*3*10</f>
         <v>1800</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>E9*2000</f>
         <v>6000</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20">
+      <c r="D9" s="11"/>
+      <c r="E9" s="19">
         <v>3</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="L9" s="14" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>67</v>
+      <c r="N9" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>6.6171428571428565</v>
-      </c>
-      <c r="B10" s="12">
+        <v>6.66</v>
+      </c>
+      <c r="B10" s="11">
         <f>C10*D10/100*10</f>
         <v>24000</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>30000</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="L10" s="21">
-        <v>7</v>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="79">
+        <f>IF(C10=0,100,200000/C10)</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="N10" s="1">
         <f>IF(C10=0,0,IF(D10=0,0,1))</f>
@@ -11965,30 +12125,31 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>C11*D11/100</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>25</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="L11" s="21">
-        <v>7</v>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="80">
+        <f>IF(C11=0,100,200000/C11)</f>
+        <v>100</v>
       </c>
       <c r="N11" s="1">
         <f>IF(C11=0,0,IF(D11=0,0,1))</f>
@@ -11996,30 +12157,31 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <f>C12/100*D12*0.08/1000 + N12*9/L12</f>
+      <c r="A12" s="21">
+        <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
         <v>0</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <f>C12*D12/100</f>
         <v>0</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>20</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="L12" s="21">
-        <v>10</v>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="L12" s="80">
+        <f>IF(C12=0,100,200000/C12)</f>
+        <v>100</v>
       </c>
       <c r="N12" s="1">
         <f>IF(C12=0,0,IF(D12=0,0,1))</f>
@@ -12027,30 +12189,31 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <f>C13/100*D13*0.08/1000 + N13*1/L13</f>
+      <c r="A13" s="21">
+        <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>C13*D13/100</f>
         <v>0</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>6</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="L13" s="21">
-        <v>7</v>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="L13" s="80">
+        <f>IF(C13=0,100,200000/C13)</f>
+        <v>100</v>
       </c>
       <c r="N13" s="1">
         <f>IF(C13=0,0,IF(D13=0,0,1))</f>
@@ -12058,30 +12221,31 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <f>C14/100*D14*0.08/1000 + N14*0.3/L14</f>
+      <c r="A14" s="21">
+        <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
         <v>0</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>C14*D14/100</f>
         <v>0</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>0.2</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="L14" s="21">
-        <v>7</v>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="L14" s="80">
+        <f>IF(C14=0,100,100000/C14)</f>
+        <v>100</v>
       </c>
       <c r="N14" s="1">
         <f>IF(C14=0,0,IF(D14=0,0,1))</f>
@@ -12095,382 +12259,392 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="78" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <f>B18*G18/1000</f>
         <v>0.48</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>C18*F18</f>
         <v>6000</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>50</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="D18" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
         <v>120</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
         <v>0.08</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="21">
         <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
         <v>5.0223999999999993</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20">
+      <c r="B22" s="9"/>
+      <c r="C22" s="19">
         <v>0.5</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>0.4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <f>1-D22-C22</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="52">
         <v>2</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
         <v>2</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <v>0.4</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="C25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="22">
         <v>1</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="76" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <v>2</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="A30" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="42">
         <f>SUM(A6:A14)</f>
-        <v>9.9291428571428568</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="39">
+        <v>9.9719999999999995</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="37">
         <f>A31/A36</f>
-        <v>0.51098067354404619</v>
-      </c>
-      <c r="D31" s="58" t="s">
+        <v>0.51205685412644286</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="46">
+      <c r="A32" s="44">
         <f>A18</f>
         <v>0.48</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="39">
+      <c r="B32" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="37">
         <f>A32/A36</f>
-        <v>2.4702104384035379E-2</v>
-      </c>
-      <c r="D32" s="77" t="s">
+        <v>2.4647742677566448E-2</v>
+      </c>
+      <c r="D32" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="10"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="46">
+      <c r="A33" s="44">
         <f>A22</f>
         <v>5.0223999999999993</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="39">
+      <c r="B33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="37">
         <f>A33/A36</f>
-        <v>0.25846635220495684</v>
+        <v>0.25789754754960353</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="J33" s="47"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="46">
+      <c r="A34" s="44">
         <f>A25</f>
         <v>2</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="39">
+      <c r="B34" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="37">
         <f>A34/A36</f>
-        <v>0.10292543493348076</v>
-      </c>
-      <c r="D34" s="78" t="s">
+        <v>0.10269892782319354</v>
+      </c>
+      <c r="D34" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="J34" s="47"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="J34" s="45"/>
     </row>
     <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="46">
+      <c r="A35" s="44">
         <f>A28</f>
         <v>2</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="39">
+      <c r="B35" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="37">
         <f>A35/A36</f>
-        <v>0.10292543493348076</v>
-      </c>
-      <c r="D35" s="79" t="s">
+        <v>0.10269892782319354</v>
+      </c>
+      <c r="D35" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="J35" s="47"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="J35" s="45"/>
     </row>
     <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="55">
+      <c r="A36" s="53">
         <f>SUM(A31:A35)</f>
-        <v>19.431542857142858</v>
-      </c>
-      <c r="B36" s="32" t="s">
+        <v>19.474399999999999</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="J36" s="47"/>
-    </row>
-    <row r="37" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
+      <c r="B37" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="49"/>
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12484,7 +12658,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A5" sqref="A5:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12499,188 +12673,190 @@
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <f>C6/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>C6/100*30*10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>E6*20000</f>
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <f>C7/100*3*0.8*3/1000</f>
-        <v>0.72</v>
-      </c>
-      <c r="B7" s="12">
+        <v>2.88</v>
+      </c>
+      <c r="B7" s="11">
         <f>C7/100*3*10</f>
-        <v>3000</v>
-      </c>
-      <c r="C7" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C7" s="10">
         <f>E7*20000</f>
-        <v>10000</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="13" t="s">
+        <v>40000</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <f>C8/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>C8/100*30*10</f>
         <v>0</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>E8*2000</f>
         <v>0</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20">
+      <c r="D8" s="11"/>
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <f>C9/100*3*0.8*3/1000</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="12">
+        <v>0.432</v>
+      </c>
+      <c r="B9" s="11">
         <f>C9/100*3*10</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C9" s="10">
         <f>E9*2000</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="L9" s="14" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>67</v>
+      <c r="N9" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="12">
+        <v>6.66</v>
+      </c>
+      <c r="B10" s="11">
         <f>C10*D10/100*10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
+        <v>24000</v>
+      </c>
+      <c r="C10" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D10" s="19">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="L10" s="21">
-        <v>7</v>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="79">
+        <f>IF(C10=0,100,200000/C10)</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="N10" s="1">
         <f>IF(C10=0,0,IF(D10=0,0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>C11*D11/100</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>25</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="L11" s="21">
-        <v>7</v>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="80">
+        <f>IF(C11=0,100,200000/C11)</f>
+        <v>100</v>
       </c>
       <c r="N11" s="1">
         <f>IF(C11=0,0,IF(D11=0,0,1))</f>
@@ -12688,61 +12864,63 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <f>C12/100*D12*0.08/1000 + N12*9/L12</f>
-        <v>1.236</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="21">
+        <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
         <f>C12*D12/100</f>
-        <v>4200</v>
-      </c>
-      <c r="C12" s="20">
-        <v>30000</v>
-      </c>
-      <c r="D12" s="20">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="L12" s="21">
-        <v>10</v>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="L12" s="80">
+        <f>IF(C12=0,100,200000/C12)</f>
+        <v>100</v>
       </c>
       <c r="N12" s="1">
         <f>IF(C12=0,0,IF(D12=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <f>C13/100*D13*0.08/1000 + N13*1/L13</f>
+      <c r="A13" s="21">
+        <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>C13*D13/100</f>
         <v>0</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>6</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="L13" s="21">
-        <v>7</v>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="L13" s="80">
+        <f>IF(C13=0,100,200000/C13)</f>
+        <v>100</v>
       </c>
       <c r="N13" s="1">
         <f>IF(C13=0,0,IF(D13=0,0,1))</f>
@@ -12750,34 +12928,35 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <f>C14/100*D14*0.08/1000 + N14*0.3/L14</f>
-        <v>4.365714285714286E-2</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="21">
+        <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
         <f>C14*D14/100</f>
-        <v>10</v>
-      </c>
-      <c r="C14" s="20">
-        <v>5000</v>
-      </c>
-      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
         <v>0.2</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="L14" s="21">
-        <v>7</v>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="L14" s="80">
+        <f>IF(C14=0,100,100000/C14)</f>
+        <v>100</v>
       </c>
       <c r="N14" s="1">
         <f>IF(C14=0,0,IF(D14=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -12787,260 +12966,260 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="78" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <f>B18*G18/1000</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>C18*F18</f>
         <v>3500</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>50</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="E18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
         <v>70</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
         <v>0.08</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="21">
         <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
         <v>2.5111999999999997</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20">
+      <c r="B22" s="9"/>
+      <c r="C22" s="19">
         <v>0.5</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>0.4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <f>1-D22-C22</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="52">
         <v>1</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
         <v>1</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <v>0.4</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="C25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="22">
         <v>0.5</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="76" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <f>2*0.93^(2030-Data!E4)</f>
         <v>1.2034017412151405</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13054,7 +13233,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A5" sqref="A5:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13069,188 +13248,190 @@
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <f>C6/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>C6/100*30*10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>E6*20000</f>
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <f>C7/100*3*0.8*3/1000</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="12">
+        <v>2.88</v>
+      </c>
+      <c r="B7" s="11">
         <f>C7/100*3*10</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C7" s="10">
         <f>E7*20000</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13" t="s">
+        <v>40000</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="17">
         <f>C8/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>C8/100*30*10</f>
         <v>0</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>E8*2000</f>
         <v>0</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20">
+      <c r="D8" s="11"/>
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <f>C9/100*3*0.8*3/1000</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="12">
+        <v>0.432</v>
+      </c>
+      <c r="B9" s="11">
         <f>C9/100*3*10</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C9" s="10">
         <f>E9*2000</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="L9" s="14" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>67</v>
+      <c r="N9" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="12">
+        <v>6.66</v>
+      </c>
+      <c r="B10" s="11">
         <f>C10*D10/100*10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
+        <v>24000</v>
+      </c>
+      <c r="C10" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D10" s="19">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="L10" s="21">
-        <v>7</v>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="79">
+        <f>IF(C10=0,100,200000/C10)</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="N10" s="1">
         <f>IF(C10=0,0,IF(D10=0,0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>C11*D11/100</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>25</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="L11" s="21">
-        <v>7</v>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="80">
+        <f>IF(C11=0,100,200000/C11)</f>
+        <v>100</v>
       </c>
       <c r="N11" s="1">
         <f>IF(C11=0,0,IF(D11=0,0,1))</f>
@@ -13258,61 +13439,63 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <f>C12/100*D12*0.08/1000 + N12*9/L12</f>
-        <v>1.012</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="21">
+        <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
         <f>C12*D12/100</f>
-        <v>1400</v>
-      </c>
-      <c r="C12" s="20">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="20">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="L12" s="21">
-        <v>10</v>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="L12" s="80">
+        <f>IF(C12=0,100,200000/C12)</f>
+        <v>100</v>
       </c>
       <c r="N12" s="1">
         <f>IF(C12=0,0,IF(D12=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <f>C13/100*D13*0.08/1000 + N13*1/L13</f>
+      <c r="A13" s="21">
+        <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>C13*D13/100</f>
         <v>0</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>6</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="L13" s="21">
-        <v>7</v>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="L13" s="80">
+        <f>IF(C13=0,100,200000/C13)</f>
+        <v>100</v>
       </c>
       <c r="N13" s="1">
         <f>IF(C13=0,0,IF(D13=0,0,1))</f>
@@ -13320,34 +13503,35 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <f>C14/100*D14*0.08/1000 + N14*0.3/L14</f>
-        <v>4.365714285714286E-2</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="21">
+        <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
         <f>C14*D14/100</f>
-        <v>10</v>
-      </c>
-      <c r="C14" s="20">
-        <v>5000</v>
-      </c>
-      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
         <v>0.2</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="L14" s="21">
-        <v>7</v>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="L14" s="80">
+        <f>IF(C14=0,100,100000/C14)</f>
+        <v>100</v>
       </c>
       <c r="N14" s="1">
         <f>IF(C14=0,0,IF(D14=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -13357,260 +13541,260 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="78" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <f>B18*G18/1000</f>
         <v>0.105</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>C18*F18</f>
         <v>3500</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>50</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
         <v>70</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
         <v>0.03</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="21">
         <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
         <v>1.2555999999999998</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20">
+      <c r="B22" s="9"/>
+      <c r="C22" s="19">
         <v>0.5</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>0.4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <f>1-D22-C22</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="52">
         <v>0.5</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
         <v>0.5</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <v>0.4</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="C25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="22">
         <v>0.25</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="71"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="76" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <f>'2030'!A28*0.93^10</f>
         <v>0.58242515117688287</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13623,8 +13807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99EDEFF-C087-8B47-A63C-A9E28E2EDFB3}">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13639,188 +13823,190 @@
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <f>C6/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>C6/100*30*10</f>
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>E6*20000</f>
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <f>C7/100*3*0.8*3/1000</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="12">
+        <v>2.88</v>
+      </c>
+      <c r="B7" s="11">
         <f>C7/100*3*10</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
+        <v>12000</v>
+      </c>
+      <c r="C7" s="10">
         <f>E7*20000</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13" t="s">
+        <v>40000</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <f>C8/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>C8/100*30*10</f>
         <v>0</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>E8*2000</f>
         <v>0</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20">
+      <c r="D8" s="11"/>
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <f>C9/100*3*0.8*3/1000</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="12">
+        <v>0.432</v>
+      </c>
+      <c r="B9" s="11">
         <f>C9/100*3*10</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C9" s="10">
         <f>E9*2000</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="L9" s="14" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>67</v>
+      <c r="N9" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="12">
+        <v>6.66</v>
+      </c>
+      <c r="B10" s="11">
         <f>C10*D10/100*10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
+        <v>24000</v>
+      </c>
+      <c r="C10" s="19">
+        <v>30000</v>
+      </c>
+      <c r="D10" s="19">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="L10" s="21">
-        <v>7</v>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="79">
+        <f>IF(C10=0,100,200000/C10)</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="N10" s="1">
         <f>IF(C10=0,0,IF(D10=0,0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>C11*D11/100</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>25</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="L11" s="21">
-        <v>7</v>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="80">
+        <f>IF(C11=0,100,200000/C11)</f>
+        <v>100</v>
       </c>
       <c r="N11" s="1">
         <f>IF(C11=0,0,IF(D11=0,0,1))</f>
@@ -13828,61 +14014,63 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <f>C12/100*D12*0.08/1000 + N12*9/L12</f>
-        <v>0.98960000000000004</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="21">
+        <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
         <f>C12*D12/100</f>
-        <v>1120</v>
-      </c>
-      <c r="C12" s="20">
-        <v>8000</v>
-      </c>
-      <c r="D12" s="20">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>20</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="L12" s="21">
-        <v>10</v>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="L12" s="80">
+        <f>IF(C12=0,100,200000/C12)</f>
+        <v>100</v>
       </c>
       <c r="N12" s="1">
         <f>IF(C12=0,0,IF(D12=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <f>C13/100*D13*0.08/1000 + N13*1/L13</f>
+      <c r="A13" s="21">
+        <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>C13*D13/100</f>
         <v>0</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>6</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="L13" s="21">
-        <v>7</v>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="L13" s="80">
+        <f>IF(C13=0,100,200000/C13)</f>
+        <v>100</v>
       </c>
       <c r="N13" s="1">
         <f>IF(C13=0,0,IF(D13=0,0,1))</f>
@@ -13890,34 +14078,35 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <f>C14/100*D14*0.08/1000 + N14*0.3/L14</f>
-        <v>4.365714285714286E-2</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="21">
+        <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
         <f>C14*D14/100</f>
-        <v>10</v>
-      </c>
-      <c r="C14" s="20">
-        <v>5000</v>
-      </c>
-      <c r="D14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
         <v>0.2</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="L14" s="21">
-        <v>7</v>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="L14" s="80">
+        <f>IF(C14=0,100,100000/C14)</f>
+        <v>100</v>
       </c>
       <c r="N14" s="1">
         <f>IF(C14=0,0,IF(D14=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -13927,258 +14116,258 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="78" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <f>B18*G18/1000</f>
         <v>3.15E-2</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>C18*F18</f>
         <v>1050</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>30</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
         <v>35</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
         <v>0.03</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="21">
         <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
         <v>0.44530000000000008</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="20">
+      <c r="B22" s="9"/>
+      <c r="C22" s="19">
         <v>0.1</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>0.2</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <f>1-D22-C22</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="52">
         <v>0.5</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
         <v>0.5</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <v>0.4</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="C25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="22">
         <v>0.25</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="76" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+      <c r="A28" s="26">
         <f>'2040'!A28*0.93^10</f>
         <v>0.28188346842583661</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14191,8 +14380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A0CFFB-9B87-8C46-9710-42FD174CB3FE}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14206,333 +14395,333 @@
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <f>Data!E4</f>
         <v>2023</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>2030</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="31">
         <v>2040</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>2050</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="54">
         <f>SUM(Data!A6:A14)</f>
-        <v>9.9291428571428568</v>
-      </c>
-      <c r="B5" s="56">
+        <v>9.9719999999999995</v>
+      </c>
+      <c r="B5" s="54">
         <f>SUM('2030'!A6:A14)</f>
-        <v>1.9996571428571428</v>
-      </c>
-      <c r="C5" s="56">
+        <v>9.9719999999999995</v>
+      </c>
+      <c r="C5" s="54">
         <f>SUM('2040'!A6:A14)</f>
-        <v>1.0556571428571428</v>
-      </c>
-      <c r="D5" s="56">
+        <v>9.9719999999999995</v>
+      </c>
+      <c r="D5" s="54">
         <f>SUM('2050'!A6:A14)</f>
-        <v>1.0332571428571429</v>
-      </c>
-      <c r="E5" s="58" t="s">
+        <v>9.9719999999999995</v>
+      </c>
+      <c r="E5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="G5" s="31"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="54">
         <f>Data!A18</f>
         <v>0.48</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="54">
         <f>'2030'!A18</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="54">
         <f>'2040'!A18</f>
         <v>0.105</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="54">
         <f>'2050'!A18</f>
         <v>3.15E-2</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="78" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="J6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="54">
         <f>Data!A22</f>
         <v>5.0223999999999993</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="54">
         <f>'2030'!A22</f>
         <v>2.5111999999999997</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="54">
         <f>'2040'!A22</f>
         <v>1.2555999999999998</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <f>'2050'!A22</f>
         <v>0.44530000000000008</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="G7" s="20"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="54">
         <f>Data!A25</f>
         <v>2</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="54">
         <f>'2030'!A25</f>
         <v>1</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="54">
         <f>'2040'!A25</f>
         <v>0.5</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="54">
         <f>'2050'!A25</f>
         <v>0.5</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="G8" s="20"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="54">
         <f>Data!A28</f>
         <v>2</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="54">
         <f>'2030'!A28</f>
         <v>1.2034017412151405</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="54">
         <f>'2040'!A28</f>
         <v>0.58242515117688287</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <f>'2050'!A28</f>
         <v>0.28188346842583661</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="12"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="11"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="12"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="65">
         <f>SUM(A5:A9)</f>
-        <v>19.431542857142858</v>
-      </c>
-      <c r="B12" s="67">
+        <v>19.474399999999999</v>
+      </c>
+      <c r="B12" s="65">
         <f>SUM(B5:B9)</f>
-        <v>6.9942588840722824</v>
-      </c>
-      <c r="C12" s="67">
+        <v>14.966601741215138</v>
+      </c>
+      <c r="C12" s="65">
         <f>SUM(C5:C9)</f>
-        <v>3.4986822940340256</v>
-      </c>
-      <c r="D12" s="67">
+        <v>12.415025151176883</v>
+      </c>
+      <c r="D12" s="65">
         <f>SUM(D5:D9)</f>
-        <v>2.2919406112829792</v>
-      </c>
-      <c r="E12" s="35" t="s">
+        <v>11.230683468425836</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="33">
         <v>12</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="33">
         <v>6</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>3</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>1.5</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="33" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="D14" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="69" t="s">
-        <v>87</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="29">
         <f>A12*1000/365</f>
-        <v>53.237103718199606</v>
-      </c>
-      <c r="B17" s="31">
+        <v>53.354520547945199</v>
+      </c>
+      <c r="B17" s="29">
         <f>B12*1000/365</f>
-        <v>19.162353107047348</v>
-      </c>
-      <c r="C17" s="31">
+        <v>41.004388332096269</v>
+      </c>
+      <c r="C17" s="29">
         <f>C12*1000/365</f>
-        <v>9.5854309425589754</v>
-      </c>
-      <c r="D17" s="31">
+        <v>34.013767537470912</v>
+      </c>
+      <c r="D17" s="29">
         <f>D12*1000/365</f>
-        <v>6.2792893459807653</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>95</v>
+        <v>30.7689958039064</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="10"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="A19" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="9"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="32"/>
+      <c r="A20" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="30"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="25"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="C24" s="31"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="32"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -14567,325 +14756,325 @@
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76">
+      <c r="A4" s="31">
         <f>Data!E4</f>
         <v>2023</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="31">
         <v>2030</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="31">
         <v>2040</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="31">
         <v>2050</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
+      <c r="A5" s="68">
         <f>SUM(Data!B6:B14)</f>
         <v>37800</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="68">
         <f>SUM('2030'!B6:B14)</f>
-        <v>7210</v>
-      </c>
-      <c r="C5" s="70">
+        <v>37800</v>
+      </c>
+      <c r="C5" s="68">
         <f>SUM('2040'!B6:B14)</f>
-        <v>1410</v>
-      </c>
-      <c r="D5" s="70">
+        <v>37800</v>
+      </c>
+      <c r="D5" s="68">
         <f>SUM('2050'!B6:B14)</f>
-        <v>1130</v>
-      </c>
-      <c r="E5" s="34" t="s">
+        <v>37800</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="G5" s="31"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+      <c r="A6" s="68">
         <f>Data!B18</f>
         <v>6000</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="68">
         <f>'2030'!B18</f>
         <v>3500</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="68">
         <f>'2040'!B18</f>
         <v>3500</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="68">
         <f>'2050'!B18</f>
         <v>1050</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="J6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="68">
         <f>Data!B22</f>
         <v>0</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="68">
         <f>'2030'!B22</f>
         <v>0</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="68">
         <f>'2040'!B22</f>
         <v>0</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="68">
         <f>'2050'!B22</f>
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="G7" s="20"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="A8" s="68">
         <f>Data!B25</f>
         <v>0.4</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="68">
         <f>'2030'!B25</f>
         <v>0.4</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="68">
         <f>'2040'!B25</f>
         <v>0.4</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="68">
         <f>'2050'!B25</f>
         <v>0.4</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="G8" s="20"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="68">
         <f>Data!B28</f>
         <v>0</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="68">
         <f>'2030'!B28</f>
         <v>0</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="68">
         <f>'2040'!B28</f>
         <v>0</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="68">
         <f>'2050'!B28</f>
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="12"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="11"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="12"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+      <c r="A12" s="65">
         <f>SUM(A5:A9)</f>
         <v>43800.4</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="65">
         <f>SUM(B5:B9)</f>
-        <v>10710.4</v>
-      </c>
-      <c r="C12" s="67">
+        <v>41300.400000000001</v>
+      </c>
+      <c r="C12" s="65">
         <f>SUM(C5:C9)</f>
-        <v>4910.3999999999996</v>
-      </c>
-      <c r="D12" s="67">
+        <v>41300.400000000001</v>
+      </c>
+      <c r="D12" s="65">
         <f>SUM(D5:D9)</f>
-        <v>2180.4</v>
-      </c>
-      <c r="E12" s="35" t="s">
+        <v>38850.400000000001</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="I12" s="20"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="G13" s="3"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="29">
         <f>A12/365</f>
         <v>120.00109589041097</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="29">
         <f>B12/365</f>
-        <v>29.343561643835617</v>
-      </c>
-      <c r="C15" s="31">
+        <v>113.15178082191781</v>
+      </c>
+      <c r="C15" s="29">
         <f>C12/365</f>
-        <v>13.453150684931506</v>
-      </c>
-      <c r="D15" s="31">
+        <v>113.15178082191781</v>
+      </c>
+      <c r="D15" s="29">
         <f>D12/365</f>
-        <v>5.9736986301369868</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>96</v>
+        <v>106.43945205479453</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="74">
+      <c r="A16" s="72">
         <f>40000/365</f>
         <v>109.58904109589041</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="G16" s="32" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="G16" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="74">
+      <c r="A17" s="72">
         <f>20000/365</f>
         <v>54.794520547945204</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="G17" s="32" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="G17" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="E19" s="17"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="25"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="25"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="C24" s="31"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="32"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="32"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -14910,825 +15099,825 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
     </row>
     <row r="3" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="A3" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="A10" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-    </row>
-    <row r="16" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="35" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="K19" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="A20" s="69">
         <v>300</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="62" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="39">
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="37">
         <v>0.01</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="61">
         <v>300</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="62">
         <f>0.01*H20</f>
         <v>3</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="37">
         <f>I20/I24</f>
         <v>0.2824858757062147</v>
       </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="A21" s="69">
         <v>28</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="62" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="39">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="37">
         <v>0.09</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="61">
         <v>28</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="62">
         <f>0.09*H21</f>
         <v>2.52</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="37">
         <f>I21/I24</f>
         <v>0.23728813559322035</v>
       </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="A22" s="69">
         <v>9</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="62" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="39">
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="37">
         <v>0.4</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="61">
         <v>9</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="62">
         <f>0.4*H22</f>
         <v>3.6</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="37">
         <f>I22/I24</f>
         <v>0.33898305084745767</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+      <c r="A23" s="70">
         <v>3</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="62" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="39">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="37">
         <v>0.5</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="61">
         <v>3</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="62">
         <f>0.5*H23</f>
         <v>1.5</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="37">
         <f>I23/I24</f>
         <v>0.14124293785310735</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="65">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="63">
         <f>SUM(I20:I23)</f>
         <v>10.62</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
     <row r="25" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
     </row>
     <row r="27" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
     </row>
     <row r="30" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
     </row>
     <row r="32" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15749,573 +15938,573 @@
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
     </row>
     <row r="3" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="32" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C9" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
+      <c r="B13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-    </row>
-    <row r="10" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-    </row>
-    <row r="13" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-    </row>
-    <row r="14" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="33">
         <f>Data!E4</f>
         <v>2023</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>2030</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>2040</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>2050</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="35" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="F16" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-    </row>
-    <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-    </row>
-    <row r="19" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CO2.xlsx
+++ b/CO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v.chapin/Library/CloudStorage/Dropbox/HappyFew_1.0Go/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B103ED-B980-6545-8A78-601602E2433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC32E2B-9854-6D49-860A-BF207F81FE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="28" r:id="rId1"/>
@@ -97,6 +97,403 @@
         </r>
       </text>
     </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{8B480AD1-4F7D-514C-8A04-747D2A81ED9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un jet privé consomme 30L/100km/passager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{5701AE33-7CDF-0A4C-8176-CCE108919B77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 30L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{BD62CA2F-A0BD-C245-B50C-A6ACB80FFE70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R international c'est en moyenne 20 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{458E9EC0-3EC8-0349-8343-D7AFB07FF59C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un avion de ligne consomme 3L/100km/passager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{73AAD938-8FCE-E446-8AD5-6429F7BEF5D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 3L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{9F17F9B9-E106-7447-9ADD-D99F8E62200D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R international c'est en moyenne 20 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{8F6FAD59-F71D-4741-B1AE-3A4D9AE20786}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 30L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{A47CD3DB-6720-2447-B976-24EC6E309C0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R national c'est en moyenne 2 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{8F4F0DC4-2641-6F4B-B030-DB3F2F950DAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 3L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{C4B92E76-A9A1-1346-B2B1-35AFE6DC4036}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R national c'est en moyenne 2 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{23DC3AAA-B3F3-594E-8319-92635123C249}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 1L = 10 kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{6D71595E-30C7-384D-B796-1D78744031E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nombre de kilomètre par an et par personne
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L10" authorId="0" shapeId="0" xr:uid="{3C53B9A9-FC37-DA46-B523-6F69F89FE5FA}">
       <text>
         <r>
@@ -739,7 +1136,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{0B12B0FB-7741-A14D-93EB-00969877069C}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{33F2F701-6683-1541-9856-8F07143B40FA}">
       <text>
         <r>
           <rPr>
@@ -768,6 +1165,403 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Hypothèse : un jet privé consomme 30L/100km/passager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{C09FDDDE-BC85-964B-BC49-E001F87654BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 30L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{29A47581-85C6-6D4D-A034-26F0EA206C5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R international c'est en moyenne 20 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{FF467667-C020-2B40-9795-A7D5BAD0378D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un avion de ligne consomme 3L/100km/passager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{F1FD4BA6-4A86-044E-95BE-87235BDCD8D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 3L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{18EC2FCA-EB4F-844A-8BC0-A5509FE2912D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R international c'est en moyenne 20 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{43BE75AB-27D6-3E4E-B0B8-DF962100FB0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 30L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{62C1C630-B87A-9742-8C19-DC05C0C01653}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R national c'est en moyenne 2 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{CA2F9ACA-D4DC-5E4B-96CB-2BEA57B9359C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 3L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{7DF39224-0499-2644-B2C3-1AD49A6180F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R national c'est en moyenne 2 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{9CC7109F-147E-C340-A441-6F6CE8409EFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 1L = 10 kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{21B5D50D-35AE-B74C-A6CD-41D4ED8B0E7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nombre de kilomètre par an et par personne
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{DBE0B4BA-9D3B-7140-A6D1-06DBE1058029}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : durée de vie = 200 000 km
 </t>
         </r>
@@ -792,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{C26CB1FA-C6B2-0748-8548-16F67A9EFA6B}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{A4D8FEBE-2F37-3F42-8079-0C0EB62FBBD2}">
       <text>
         <r>
           <rPr>
@@ -845,7 +1639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{72B39A8C-8DA4-E048-8983-D49D368E4A2C}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{10B4605D-EFBE-EC43-A13A-EBD888B3FE06}">
       <text>
         <r>
           <rPr>
@@ -898,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{2F4F052C-8B93-8744-80C1-424D95AA3646}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{517637B7-D020-6644-9BB9-787532748B83}">
       <text>
         <r>
           <rPr>
@@ -951,7 +1745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{859FF2D0-8B3E-DD4C-B221-59816F57B17D}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{B35757C7-8A20-1743-957C-4D4F0334227A}">
       <text>
         <r>
           <rPr>
@@ -1381,7 +2175,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{B0E53B6E-364C-FA4A-A06D-46905BA0FB5A}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{5961145E-E526-1947-A2AD-CF6100467628}">
       <text>
         <r>
           <rPr>
@@ -1410,6 +2204,403 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Hypothèse : un jet privé consomme 30L/100km/passager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{47E48556-AC9D-CD44-BE16-628DDEC1942A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 30L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{E1B85F49-A17D-8B4B-93C8-7F2ADA63F1F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R international c'est en moyenne 20 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{1783A9BB-8683-3A4A-BB46-1271B35B1EE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un avion de ligne consomme 3L/100km/passager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{CF813199-5FC2-4D4E-BE46-7B00FA64417F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 3L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{47E3916B-2180-9047-8F9E-8DC0212F575F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R international c'est en moyenne 20 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{5BC8B2E1-45A5-F940-A760-5B89DE239B71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 30L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{018FFEA4-8170-BB42-8CAC-045E60FFF245}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R national c'est en moyenne 2 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{CEC24162-E423-9147-98DD-87148485A015}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 3L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{F88D5C32-0777-8E43-A944-39C7DBDA5CC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R national c'est en moyenne 2 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{1ACFC12F-1939-F54E-BA59-1A1A8B294DAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 1L = 10 kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{49B569C0-DA27-644F-B3AF-CDBB181795BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nombre de kilomètre par an et par personne
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{442314DF-EEC0-2A4F-ADE5-F7657EFCE926}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : durée de vie = 200 000 km
 </t>
         </r>
@@ -1434,7 +2625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{D7F7B894-C136-C644-AC58-2B28B17D4D97}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{EFDB7F08-EBF9-7149-91D2-FDDB0579B61F}">
       <text>
         <r>
           <rPr>
@@ -1487,7 +2678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{F7568BC5-8668-8948-90CF-4ACB42EA2586}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{3CF4868D-1F93-CB4B-A514-E4E9D7D9B21B}">
       <text>
         <r>
           <rPr>
@@ -1540,7 +2731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{233DC70E-0554-7F43-AEE8-65C509057251}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{B1A18653-617D-7941-8DEB-6B02BCED758B}">
       <text>
         <r>
           <rPr>
@@ -1593,7 +2784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{52158F4F-B71B-7D4B-A03C-382EDAA6BEA5}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{4D72D366-8335-1C45-B9F7-963F7BB1BE58}">
       <text>
         <r>
           <rPr>
@@ -2023,7 +3214,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{8D4BB45F-A983-0745-8229-24719932D1F1}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{D4A31625-4965-E14A-9652-DAE86E96D199}">
       <text>
         <r>
           <rPr>
@@ -2052,6 +3243,403 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Hypothèse : un jet privé consomme 30L/100km/passager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{5164D419-80A4-064E-88AD-847D66CFB0EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 30L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{BEB59141-319B-CF40-9735-4B92F13A64D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R international c'est en moyenne 20 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{351F79EE-498C-544F-80A0-10B5F171F206}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un avion de ligne consomme 3L/100km/passager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{FF614C88-FD04-E74D-AC1A-53DE511754CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 3L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{9CD8143E-2262-DA44-811C-C4BE0BE8CE08}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R international c'est en moyenne 20 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{4A09D9FE-36BD-3B43-A686-75E49D3088D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 30L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F3A656CD-D570-AA46-9484-62E4F97B1259}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R national c'est en moyenne 2 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{86CC0CAB-5C5D-0844-9580-73EA06BBF8EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 3L/100km 1L = 1kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{3D7D1B95-21E3-B340-882E-CBCCFD64D962}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : un vol A/R national c'est en moyenne 2 000 km</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{7B563D83-906C-8F4F-B8F7-5C57C04D2EB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hyp : 1L = 10 kWh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{B5F61947-A2CF-D346-A58C-EBB9FA240356}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nombre de kilomètre par an et par personne
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{EE876235-4C47-994C-BEC4-B2C9726CA0AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : durée de vie = 200 000 km
 </t>
         </r>
@@ -2076,7 +3664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{32A5BB09-6E43-804A-8A98-33B1D3A1AF5B}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{B5CAA4A6-E25D-EC45-9ECD-C88C979B16C5}">
       <text>
         <r>
           <rPr>
@@ -2129,7 +3717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{EB46069F-113B-CF46-8E29-4B0FB9F98403}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{46035649-A822-314D-B76A-C4403EA3597F}">
       <text>
         <r>
           <rPr>
@@ -2182,7 +3770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{42CD3604-9992-EB4E-BFAE-24318174C5D8}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{5DB8161D-E78B-B247-9D4C-72B09D1E7CB5}">
       <text>
         <r>
           <rPr>
@@ -2235,7 +3823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{55D51385-812A-2E4F-A3E0-BDF9E1E6D13B}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{EFCE4B2A-C9F7-874E-9327-E4E478B6BE88}">
       <text>
         <r>
           <rPr>
@@ -2757,7 +4345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="107">
   <si>
     <t>TCO2/an</t>
   </si>
@@ -3215,9 +4803,6 @@
     <t>Carbon law:</t>
   </si>
   <si>
-    <t>%CO2 cible</t>
-  </si>
-  <si>
     <t>Carbon law scientific paper:</t>
   </si>
   <si>
@@ -3246,6 +4831,24 @@
   </si>
   <si>
     <t xml:space="preserve">Emissions CO2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source : </t>
+  </si>
+  <si>
+    <t>https://www.oxfam.org/fr/communiques-presse/les-emissions-de-co2-des-1-les-plus-riches-parties-pour-etre-30-fois-plus</t>
+  </si>
+  <si>
+    <t>émissions des 10% les plus riches = 52%</t>
+  </si>
+  <si>
+    <t>émissions des 1% = 2 fois celles des 50% les plus pauves</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
 </sst>
 </file>
@@ -3512,7 +5115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3528,6 +5131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4984,7 +6593,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5128,9 +6737,6 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5145,9 +6751,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5170,11 +6773,21 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1360" applyFont="1"/>
+    <xf numFmtId="9" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1361">
@@ -7464,9 +9077,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.59814788359566051"/>
-          <c:y val="0.15187419538337177"/>
-          <c:w val="0.25423104894100323"/>
+          <c:x val="0.58534105328616204"/>
+          <c:y val="0.17300099811467232"/>
+          <c:w val="0.30332389347809641"/>
           <c:h val="0.2771996208807232"/>
         </c:manualLayout>
       </c:layout>
@@ -7485,7 +9098,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11944,8 +13557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FF7EAA-5CC9-6947-BEFB-803634551652}">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12098,7 +13711,7 @@
         <v>6.66</v>
       </c>
       <c r="B10" s="11">
-        <f>C10*D10/100*10</f>
+        <f>C10/100*D10*10</f>
         <v>24000</v>
       </c>
       <c r="C10" s="19">
@@ -12115,7 +13728,7 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="79">
+      <c r="L10" s="77">
         <f>IF(C10=0,100,200000/C10)</f>
         <v>6.666666666666667</v>
       </c>
@@ -12147,7 +13760,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="80">
+      <c r="L11" s="1">
         <f>IF(C11=0,100,200000/C11)</f>
         <v>100</v>
       </c>
@@ -12179,7 +13792,7 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="L12" s="80">
+      <c r="L12" s="1">
         <f>IF(C12=0,100,200000/C12)</f>
         <v>100</v>
       </c>
@@ -12211,7 +13824,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="L13" s="80">
+      <c r="L13" s="1">
         <f>IF(C13=0,100,200000/C13)</f>
         <v>100</v>
       </c>
@@ -12243,7 +13856,7 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="L14" s="80">
+      <c r="L14" s="1">
         <f>IF(C14=0,100,100000/C14)</f>
         <v>100</v>
       </c>
@@ -12259,7 +13872,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
@@ -12275,8 +13888,8 @@
       <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="73" t="s">
-        <v>99</v>
+      <c r="D17" s="71" t="s">
+        <v>98</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
@@ -12304,7 +13917,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>65</v>
@@ -12402,8 +14015,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>98</v>
+      <c r="A24" s="75" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -12424,15 +14037,15 @@
         <v>0.4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="22">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="71"/>
+        <v>95</v>
+      </c>
+      <c r="F25" s="69"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
@@ -12451,7 +14064,7 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="74" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
@@ -12485,7 +14098,7 @@
     </row>
     <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -12532,7 +14145,7 @@
         <f>A32/A36</f>
         <v>2.4647742677566448E-2</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="30"/>
@@ -12571,7 +14184,7 @@
         <f>A34/A36</f>
         <v>0.10269892782319354</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="73" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="30"/>
@@ -12590,7 +14203,7 @@
         <f>A35/A36</f>
         <v>0.10269892782319354</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="74" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="30"/>
@@ -12658,7 +14271,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N14"/>
+      <selection activeCell="A6" sqref="A6:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12805,7 +14418,7 @@
         <v>6.66</v>
       </c>
       <c r="B10" s="11">
-        <f>C10*D10/100*10</f>
+        <f>C10/100*D10*10</f>
         <v>24000</v>
       </c>
       <c r="C10" s="19">
@@ -12822,7 +14435,7 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="79">
+      <c r="L10" s="77">
         <f>IF(C10=0,100,200000/C10)</f>
         <v>6.666666666666667</v>
       </c>
@@ -12854,7 +14467,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="80">
+      <c r="L11" s="1">
         <f>IF(C11=0,100,200000/C11)</f>
         <v>100</v>
       </c>
@@ -12886,7 +14499,7 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="L12" s="80">
+      <c r="L12" s="1">
         <f>IF(C12=0,100,200000/C12)</f>
         <v>100</v>
       </c>
@@ -12918,7 +14531,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="L13" s="80">
+      <c r="L13" s="1">
         <f>IF(C13=0,100,200000/C13)</f>
         <v>100</v>
       </c>
@@ -12950,7 +14563,7 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="L14" s="80">
+      <c r="L14" s="1">
         <f>IF(C14=0,100,100000/C14)</f>
         <v>100</v>
       </c>
@@ -12966,7 +14579,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
@@ -12983,7 +14596,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
@@ -13109,8 +14722,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>98</v>
+      <c r="A24" s="75" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -13131,15 +14744,15 @@
         <v>0.4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="22">
         <v>0.5</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="71"/>
+        <v>95</v>
+      </c>
+      <c r="F25" s="69"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
@@ -13158,7 +14771,7 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="74" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
@@ -13233,7 +14846,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N14"/>
+      <selection activeCell="A6" sqref="A6:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13380,7 +14993,7 @@
         <v>6.66</v>
       </c>
       <c r="B10" s="11">
-        <f>C10*D10/100*10</f>
+        <f>C10/100*D10*10</f>
         <v>24000</v>
       </c>
       <c r="C10" s="19">
@@ -13397,7 +15010,7 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="79">
+      <c r="L10" s="77">
         <f>IF(C10=0,100,200000/C10)</f>
         <v>6.666666666666667</v>
       </c>
@@ -13429,7 +15042,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="80">
+      <c r="L11" s="1">
         <f>IF(C11=0,100,200000/C11)</f>
         <v>100</v>
       </c>
@@ -13461,7 +15074,7 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="L12" s="80">
+      <c r="L12" s="1">
         <f>IF(C12=0,100,200000/C12)</f>
         <v>100</v>
       </c>
@@ -13493,7 +15106,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="L13" s="80">
+      <c r="L13" s="1">
         <f>IF(C13=0,100,200000/C13)</f>
         <v>100</v>
       </c>
@@ -13525,7 +15138,7 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="L14" s="80">
+      <c r="L14" s="1">
         <f>IF(C14=0,100,100000/C14)</f>
         <v>100</v>
       </c>
@@ -13541,7 +15154,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
@@ -13558,7 +15171,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
@@ -13684,8 +15297,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>98</v>
+      <c r="A24" s="75" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -13706,15 +15319,15 @@
         <v>0.4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="22">
         <v>0.25</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="71"/>
+        <v>95</v>
+      </c>
+      <c r="F25" s="69"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
@@ -13733,7 +15346,7 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="74" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
@@ -13807,8 +15420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99EDEFF-C087-8B47-A63C-A9E28E2EDFB3}">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13955,7 +15568,7 @@
         <v>6.66</v>
       </c>
       <c r="B10" s="11">
-        <f>C10*D10/100*10</f>
+        <f>C10/100*D10*10</f>
         <v>24000</v>
       </c>
       <c r="C10" s="19">
@@ -13972,7 +15585,7 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="79">
+      <c r="L10" s="77">
         <f>IF(C10=0,100,200000/C10)</f>
         <v>6.666666666666667</v>
       </c>
@@ -14004,7 +15617,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="80">
+      <c r="L11" s="1">
         <f>IF(C11=0,100,200000/C11)</f>
         <v>100</v>
       </c>
@@ -14036,7 +15649,7 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="L12" s="80">
+      <c r="L12" s="1">
         <f>IF(C12=0,100,200000/C12)</f>
         <v>100</v>
       </c>
@@ -14068,7 +15681,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="L13" s="80">
+      <c r="L13" s="1">
         <f>IF(C13=0,100,200000/C13)</f>
         <v>100</v>
       </c>
@@ -14100,7 +15713,7 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="L14" s="80">
+      <c r="L14" s="1">
         <f>IF(C14=0,100,100000/C14)</f>
         <v>100</v>
       </c>
@@ -14116,7 +15729,7 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="1"/>
@@ -14133,7 +15746,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
@@ -14259,8 +15872,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
-        <v>98</v>
+      <c r="A24" s="75" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -14281,13 +15894,13 @@
         <v>0.4</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="22">
         <v>0.25</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
@@ -14306,7 +15919,7 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="74" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="1"/>
@@ -14381,7 +15994,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14471,7 +16084,7 @@
         <f>'2050'!A18</f>
         <v>3.15E-2</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="76" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="4"/>
@@ -14520,7 +16133,7 @@
         <f>'2050'!A25</f>
         <v>0.5</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="73" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="20"/>
@@ -14544,7 +16157,7 @@
         <f>'2050'!A28</f>
         <v>0.28188346842583661</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="74" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="20"/>
@@ -14561,19 +16174,19 @@
     </row>
     <row r="11" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+      <c r="A12" s="64">
         <f>SUM(A5:A9)</f>
         <v>19.474399999999999</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <f>SUM(B5:B9)</f>
         <v>14.966601741215138</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <f>SUM(C5:C9)</f>
         <v>12.415025151176883</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="64">
         <f>SUM(D5:D9)</f>
         <v>11.230683468425836</v>
       </c>
@@ -14610,16 +16223,16 @@
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -14663,7 +16276,7 @@
         <v>30.7689958039064</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>46</v>
@@ -14682,8 +16295,8 @@
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>93</v>
+      <c r="A19" s="65" t="s">
+        <v>92</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -14696,8 +16309,8 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
-        <v>92</v>
+      <c r="A20" s="65" t="s">
+        <v>91</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="30" t="s">
@@ -14792,19 +16405,19 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68">
+      <c r="A5" s="67">
         <f>SUM(Data!B6:B14)</f>
         <v>37800</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="67">
         <f>SUM('2030'!B6:B14)</f>
         <v>37800</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="67">
         <f>SUM('2040'!B6:B14)</f>
         <v>37800</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="67">
         <f>SUM('2050'!B6:B14)</f>
         <v>37800</v>
       </c>
@@ -14816,19 +16429,19 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
+      <c r="A6" s="67">
         <f>Data!B18</f>
         <v>6000</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="67">
         <f>'2030'!B18</f>
         <v>3500</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="67">
         <f>'2040'!B18</f>
         <v>3500</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="67">
         <f>'2050'!B18</f>
         <v>1050</v>
       </c>
@@ -14841,19 +16454,19 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68">
+      <c r="A7" s="67">
         <f>Data!B22</f>
         <v>0</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="67">
         <f>'2030'!B22</f>
         <v>0</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="67">
         <f>'2040'!B22</f>
         <v>0</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="67">
         <f>'2050'!B22</f>
         <v>0</v>
       </c>
@@ -14865,19 +16478,19 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="67">
         <f>Data!B25</f>
         <v>0.4</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="67">
         <f>'2030'!B25</f>
         <v>0.4</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="67">
         <f>'2040'!B25</f>
         <v>0.4</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="67">
         <f>'2050'!B25</f>
         <v>0.4</v>
       </c>
@@ -14889,19 +16502,19 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+      <c r="A9" s="67">
         <f>Data!B28</f>
         <v>0</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="67">
         <f>'2030'!B28</f>
         <v>0</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="67">
         <f>'2040'!B28</f>
         <v>0</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="67">
         <f>'2050'!B28</f>
         <v>0</v>
       </c>
@@ -14922,19 +16535,19 @@
     </row>
     <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+      <c r="A12" s="64">
         <f>SUM(A5:A9)</f>
         <v>43800.4</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <f>SUM(B5:B9)</f>
         <v>41300.400000000001</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <f>SUM(C5:C9)</f>
         <v>41300.400000000001</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="64">
         <f>SUM(D5:D9)</f>
         <v>38850.400000000001</v>
       </c>
@@ -14992,7 +16605,7 @@
         <v>106.43945205479453</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>48</v>
@@ -15004,7 +16617,7 @@
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
+      <c r="A16" s="70">
         <f>40000/365</f>
         <v>109.58904109589041</v>
       </c>
@@ -15022,7 +16635,7 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="72">
+      <c r="A17" s="70">
         <f>20000/365</f>
         <v>54.794520547945204</v>
       </c>
@@ -15090,7 +16703,7 @@
   <dimension ref="A2:X35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15241,8 +16854,12 @@
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>102</v>
+      </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -15469,7 +17086,7 @@
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="30"/>
@@ -15523,8 +17140,12 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -15550,30 +17171,27 @@
     </row>
     <row r="19" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="30"/>
+      <c r="H19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="I19" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="J19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>91</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -15585,37 +17203,41 @@
       <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="68">
         <v>300</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="61">
+        <v>200</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="30"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="37">
+      <c r="G20" s="30"/>
+      <c r="H20" s="37">
         <v>0.01</v>
       </c>
-      <c r="H20" s="61">
-        <v>300</v>
-      </c>
-      <c r="I20" s="62">
-        <f>0.01*H20</f>
-        <v>3</v>
-      </c>
-      <c r="J20" s="37">
-        <f>I20/I24</f>
-        <v>0.2824858757062147</v>
-      </c>
-      <c r="K20" s="30"/>
+      <c r="I20" s="61">
+        <v>200</v>
+      </c>
+      <c r="J20" s="80">
+        <f>0.01*I20</f>
+        <v>2</v>
+      </c>
+      <c r="K20" s="79">
+        <f>J20/J24</f>
+        <v>0.2089864158829676</v>
+      </c>
       <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="M20" s="82" t="s">
+        <v>103</v>
+      </c>
       <c r="N20" s="30"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -15627,125 +17249,142 @@
       <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+      <c r="A21" s="68">
         <v>28</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="61">
+        <v>33</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="30"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="37">
+      <c r="G21" s="30"/>
+      <c r="H21" s="37">
         <v>0.09</v>
       </c>
-      <c r="H21" s="61">
-        <v>28</v>
-      </c>
-      <c r="I21" s="62">
-        <f>0.09*H21</f>
-        <v>2.52</v>
-      </c>
-      <c r="J21" s="37">
-        <f>I21/I24</f>
-        <v>0.23728813559322035</v>
-      </c>
-      <c r="K21" s="30"/>
+      <c r="I21" s="61">
+        <v>33</v>
+      </c>
+      <c r="J21" s="62">
+        <f>0.09*I21</f>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="K21" s="79">
+        <f>J21/J24</f>
+        <v>0.31034482758620685</v>
+      </c>
       <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="M21" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="N21" s="30"/>
+      <c r="O21" s="33"/>
     </row>
     <row r="22" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+      <c r="A22" s="68">
         <v>9</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="61">
+        <v>9</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="30"/>
+      <c r="E22" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="37">
+      <c r="G22" s="30"/>
+      <c r="H22" s="37">
         <v>0.4</v>
       </c>
-      <c r="H22" s="61">
+      <c r="I22" s="61">
         <v>9</v>
       </c>
-      <c r="I22" s="62">
-        <f>0.4*H22</f>
+      <c r="J22" s="62">
+        <f>0.4*I22</f>
         <v>3.6</v>
       </c>
-      <c r="J22" s="37">
-        <f>I22/I24</f>
-        <v>0.33898305084745767</v>
-      </c>
-      <c r="K22" s="30"/>
+      <c r="K22" s="37">
+        <f>J22/J24</f>
+        <v>0.37617554858934171</v>
+      </c>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
+      <c r="O22" s="33"/>
     </row>
     <row r="23" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="68">
         <v>3</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="61">
+        <v>2</v>
+      </c>
+      <c r="C23" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="30"/>
+      <c r="E23" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="37">
+      <c r="G23" s="30"/>
+      <c r="H23" s="37">
         <v>0.5</v>
       </c>
-      <c r="H23" s="61">
-        <v>3</v>
-      </c>
-      <c r="I23" s="62">
-        <f>0.5*H23</f>
-        <v>1.5</v>
-      </c>
-      <c r="J23" s="37">
-        <f>I23/I24</f>
-        <v>0.14124293785310735</v>
-      </c>
-      <c r="K23" s="30"/>
+      <c r="I23" s="61">
+        <v>2</v>
+      </c>
+      <c r="J23" s="80">
+        <f>0.5*I23</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="37">
+        <f>J23/J24</f>
+        <v>0.1044932079414838</v>
+      </c>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
+      <c r="O23" s="33"/>
     </row>
     <row r="24" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="61">
+        <v>10.6</v>
+      </c>
+      <c r="B24" s="61">
+        <v>9.6</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>3</v>
+      </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="63">
-        <f>SUM(I20:I23)</f>
-        <v>10.62</v>
-      </c>
-      <c r="J24" s="36" t="s">
+      <c r="H24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="81">
+        <f>SUM(J20:J23)</f>
+        <v>9.57</v>
+      </c>
+      <c r="K24" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -15758,10 +17397,10 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -15774,10 +17413,10 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
     </row>
     <row r="27" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
@@ -15790,6 +17429,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
@@ -15920,6 +17560,9 @@
       <c r="N35" s="30"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{C463693E-52FA-A64F-A578-CE86F52E913C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CO2.xlsx
+++ b/CO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v.chapin/Library/CloudStorage/Dropbox/HappyFew_1.0Go/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC32E2B-9854-6D49-860A-BF207F81FE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A407BB88-2E7D-EE4D-BD44-39FF1DE83156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="28" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="2050" sheetId="34" r:id="rId4"/>
     <sheet name="Bilan CO2" sheetId="30" r:id="rId5"/>
     <sheet name="Bilan NRJ" sheetId="36" r:id="rId6"/>
-    <sheet name="Explications" sheetId="29" r:id="rId7"/>
+    <sheet name="Doc" sheetId="29" r:id="rId7"/>
     <sheet name="BE" sheetId="37" r:id="rId8"/>
   </sheets>
   <externalReferences>
@@ -36,7 +36,7 @@
     <definedName name="S">[1]Design!$E$10</definedName>
     <definedName name="V">[1]Design!$E$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -427,6 +427,129 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{C1E8D989-7683-904A-89FB-B0691FA6D49C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.13 	Aptera
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.21 	Voiture la plus aérodynamique actuelle
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.25 	Voiture très aérodynamique (Tesla, Ioniq 6, ...)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.28-0.30 	Voiture standard (Berline courante)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.33-0.36 	Petite voiture courante
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.40-0.50 	SUV
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.60	Un peu mieux que le cube (AMI), Vélo de course
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.80 	Vélo urbain, VAE, Camion
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1.00 	Cube
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.30 	Trottinette</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0" xr:uid="{23DC3AAA-B3F3-594E-8319-92635123C249}">
       <text>
         <r>
@@ -547,6 +670,82 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q10" authorId="0" shapeId="0" xr:uid="{0E804E78-7B0B-134F-957E-95F536EF3B6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.30 Rendement moyen d'une voiture thermique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.90 Rendement moyen d'une voiture électrique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{CFA9344E-363D-9A4A-9F66-0887822669DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20 à 30 kWh/km : Consommation moyenne d'un SUV électrique</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L11" authorId="0" shapeId="0" xr:uid="{EBE019B0-3C7C-7143-92CF-787AB0D22800}">
       <text>
         <r>
@@ -600,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{A2B0B970-8A53-204E-B2F2-2A1B8B9458FA}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{74416716-F894-5E4F-A882-43735BE0966D}">
       <text>
         <r>
           <rPr>
@@ -629,6 +828,39 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>12 à 18 kWh/km : Consommation moyenne d'une petite voiture électrique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{65769564-3C2B-3E47-B1EB-690CA1485A9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
@@ -639,7 +871,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 6 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -653,7 +885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{FD8157B7-0AAF-4642-9E5A-9CC5F2CC31ED}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{3DB49668-ABE9-534F-8868-430EE43D6851}">
       <text>
         <r>
           <rPr>
@@ -682,7 +914,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : durée de vie VI = 200 000 km
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
         <r>
@@ -692,7 +924,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 VI = 2 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -706,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{E70612DB-6108-634E-856E-A98912A74F72}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{7E0DAC4F-5550-F043-A678-2BAEFCCA81C4}">
       <text>
         <r>
           <rPr>
@@ -735,7 +967,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : durée de vie VAE = 100 000 km
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
         <r>
@@ -745,7 +977,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 VAE = 0.2 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -1016,7 +1248,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2.0 achat de produix (100% super ou hypermarché)</t>
+          <t>2.0 achat de produits (100% super ou hypermarché)</t>
         </r>
       </text>
     </comment>
@@ -1123,6 +1355,49 @@
             <family val="2"/>
           </rPr>
           <t>Facteur multiplicatif de déconsommation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{5966CB15-DC1A-8443-B959-5BAA67DB26B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2.0TCO2/an/p : Chiffre proposé par Le Shift Project...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.3TCO2/an/p : Chiffre proposé par Bon Pote https://bonpote.com/empreinte-carbone-des-services-publics/</t>
         </r>
       </text>
     </comment>
@@ -1136,7 +1411,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{33F2F701-6683-1541-9856-8F07143B40FA}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{C1214792-1C48-D34C-A51C-1BB288A8DE5B}">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{FF467667-C020-2B40-9795-A7D5BAD0378D}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{49170C97-D326-DA47-948F-4FA211336CB3}">
       <text>
         <r>
           <rPr>
@@ -1533,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{DBE0B4BA-9D3B-7140-A6D1-06DBE1058029}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{EB3CD6C4-E7CF-F043-95A9-B1C9D9C342DF}">
       <text>
         <r>
           <rPr>
@@ -1586,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{A4D8FEBE-2F37-3F42-8079-0C0EB62FBBD2}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{E899A0D3-E04D-E443-A2DC-1525814F2426}">
       <text>
         <r>
           <rPr>
@@ -1639,7 +1914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{10B4605D-EFBE-EC43-A13A-EBD888B3FE06}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{ECE2B584-F906-ED4F-A992-9FBCC7037DDE}">
       <text>
         <r>
           <rPr>
@@ -1678,7 +1953,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 6 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -1692,7 +1967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{517637B7-D020-6644-9BB9-787532748B83}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{16FAD6C0-285D-414C-8D4E-DD115BC2FA79}">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1996,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : durée de vie VI = 200 000 km
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
         <r>
@@ -1731,7 +2006,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 VI = 2 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -1745,7 +2020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{B35757C7-8A20-1743-957C-4D4F0334227A}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{59832425-3F04-8143-9489-9994D31F1D13}">
       <text>
         <r>
           <rPr>
@@ -1774,7 +2049,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : durée de vie VAE = 100 000 km
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
         <r>
@@ -1784,7 +2059,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 VAE = 0.2 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -2175,7 +2450,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{5961145E-E526-1947-A2AD-CF6100467628}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{AA0C151B-152F-7449-8EDE-DF8EDF485BD2}">
       <text>
         <r>
           <rPr>
@@ -2274,7 +2549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{1783A9BB-8683-3A4A-BB46-1271B35B1EE5}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{B8C3CE93-1497-3F42-84B2-BDE3120C04EC}">
       <text>
         <r>
           <rPr>
@@ -2307,7 +2582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{CF813199-5FC2-4D4E-BE46-7B00FA64417F}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{E8BD9CCA-6C0D-5244-94EE-CE2B0BAEACB9}">
       <text>
         <r>
           <rPr>
@@ -2340,7 +2615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{47E3916B-2180-9047-8F9E-8DC0212F575F}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{B96D451C-0D03-B14A-85F6-5E3B97D0C50A}">
       <text>
         <r>
           <rPr>
@@ -2373,7 +2648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{5BC8B2E1-45A5-F940-A760-5B89DE239B71}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{DAE45196-7CD6-F546-A4B0-8FDFE5780A97}">
       <text>
         <r>
           <rPr>
@@ -2406,7 +2681,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{018FFEA4-8170-BB42-8CAC-045E60FFF245}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F0F36E52-DEBB-AF4C-82D7-1E4C67306129}">
       <text>
         <r>
           <rPr>
@@ -2439,7 +2714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{CEC24162-E423-9147-98DD-87148485A015}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{48D5579A-1BEF-B945-897E-D1570015CB94}">
       <text>
         <r>
           <rPr>
@@ -2472,7 +2747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{F88D5C32-0777-8E43-A944-39C7DBDA5CC2}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{7A649B69-315E-714C-9B9A-95081662FDAE}">
       <text>
         <r>
           <rPr>
@@ -2572,7 +2847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{442314DF-EEC0-2A4F-ADE5-F7657EFCE926}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{B6A3536F-4DCD-8C49-8301-D760E9D82EBB}">
       <text>
         <r>
           <rPr>
@@ -2625,7 +2900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{EFDB7F08-EBF9-7149-91D2-FDDB0579B61F}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{BC0FAFA3-93AD-F24F-AF8A-A99CE0EDEB7B}">
       <text>
         <r>
           <rPr>
@@ -2678,7 +2953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{3CF4868D-1F93-CB4B-A514-E4E9D7D9B21B}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{1A19A45A-CB90-D44F-BF4B-BB6514BDBE42}">
       <text>
         <r>
           <rPr>
@@ -2717,7 +2992,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 6 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -2731,7 +3006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{B1A18653-617D-7941-8DEB-6B02BCED758B}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{FC21ACE2-B638-0D49-9AD2-2E2B6BE786CD}">
       <text>
         <r>
           <rPr>
@@ -2760,7 +3035,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : durée de vie VI = 200 000 km
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
         <r>
@@ -2770,7 +3045,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 VI = 2 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -2784,7 +3059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{4D72D366-8335-1C45-B9F7-963F7BB1BE58}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{41ED816B-C6A1-CA42-A206-DA27D3B89762}">
       <text>
         <r>
           <rPr>
@@ -2813,7 +3088,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : durée de vie VAE = 100 000 km
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
         <r>
@@ -2823,7 +3098,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 VAE = 0.2 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -3214,7 +3489,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{D4A31625-4965-E14A-9652-DAE86E96D199}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{A415B992-AC4D-BE48-A396-0E3E61BF3639}">
       <text>
         <r>
           <rPr>
@@ -3313,7 +3588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{351F79EE-498C-544F-80A0-10B5F171F206}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{FBCF9DE7-04FC-5647-8ABE-5323A4DD2AB1}">
       <text>
         <r>
           <rPr>
@@ -3346,7 +3621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{FF614C88-FD04-E74D-AC1A-53DE511754CC}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{1A879A1E-0A49-4748-A955-C7E614CFBBFE}">
       <text>
         <r>
           <rPr>
@@ -3379,7 +3654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{9CD8143E-2262-DA44-811C-C4BE0BE8CE08}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{5ABC6E80-5F49-594C-919C-48EB79722173}">
       <text>
         <r>
           <rPr>
@@ -3412,7 +3687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{4A09D9FE-36BD-3B43-A686-75E49D3088D6}">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{95060D1C-70CF-334C-92D6-E1F02C19616D}">
       <text>
         <r>
           <rPr>
@@ -3445,7 +3720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{F3A656CD-D570-AA46-9484-62E4F97B1259}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{A1FEB399-7342-8243-B5F5-F4A9C8865EA7}">
       <text>
         <r>
           <rPr>
@@ -3478,7 +3753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{86CC0CAB-5C5D-0844-9580-73EA06BBF8EA}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{94A03AC5-E231-9642-9691-07AFFB5EDA86}">
       <text>
         <r>
           <rPr>
@@ -3511,7 +3786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{3D7D1B95-21E3-B340-882E-CBCCFD64D962}">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{F8607014-9F55-A84C-A645-EF4B586909E4}">
       <text>
         <r>
           <rPr>
@@ -3611,7 +3886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{EE876235-4C47-994C-BEC4-B2C9726CA0AC}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{80A4C73B-8C9D-6849-A7F9-F8C8DA1B34AA}">
       <text>
         <r>
           <rPr>
@@ -3664,7 +3939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{B5CAA4A6-E25D-EC45-9ECD-C88C979B16C5}">
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{4936C203-FB3C-5A47-9C53-8AA09CDB8898}">
       <text>
         <r>
           <rPr>
@@ -3717,7 +3992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{46035649-A822-314D-B76A-C4403EA3597F}">
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{92A3E99A-0BF3-554D-9264-F9853C41804B}">
       <text>
         <r>
           <rPr>
@@ -3756,7 +4031,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 petite voiture électrique = 6 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -3770,7 +4045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{5DB8161D-E78B-B247-9D4C-72B09D1E7CB5}">
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{E6C209F5-1C55-704A-B4D3-459CC7A54322}">
       <text>
         <r>
           <rPr>
@@ -3799,7 +4074,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : durée de vie VI = 200 000 km
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
         <r>
@@ -3809,7 +4084,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 VI = 2 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -3823,7 +4098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{EFCE4B2A-C9F7-874E-9327-E4E478B6BE88}">
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{977C48FA-3433-244C-AAA1-8A4C56956E6B}">
       <text>
         <r>
           <rPr>
@@ -3852,7 +4127,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : durée de vie VAE = 100 000 km
+          <t xml:space="preserve">Hypothèse : durée de vie voiture électrique = 200 000 km
 </t>
         </r>
         <r>
@@ -3862,7 +4137,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Hypothèse : 1 VAE = 0.2 TCO2/fabrication
+          <t xml:space="preserve">Hypothèse : 1 SUV électrique = 12 TCO2/fabrication
 </t>
         </r>
         <r>
@@ -4344,8 +4619,51 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{2610B5F3-F824-6E42-AAA5-E4910288BACF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hypothèse : -7%/an</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="188">
   <si>
     <t>TCO2/an</t>
   </si>
@@ -4393,12 +4711,6 @@
   </si>
   <si>
     <t>Mobilité</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>PAC</t>
   </si>
   <si>
     <t>Consommation</t>
@@ -4553,9 +4865,6 @@
     <t>10 à 12</t>
   </si>
   <si>
-    <t>Moyenne en France en 2020 (consommation en France + importations)</t>
-  </si>
-  <si>
     <t>2- Faite le bilan CO2 d'un français qui ferait parti des 1% les plus riches selon votre représentation, analyser les résultats et la part relative de chaque poste, conclusion</t>
   </si>
   <si>
@@ -4577,22 +4886,13 @@
     <t>6- Faite votre trajectoire CO2 en remplissant les onglets Data, 2030, 2040, 2050 et retrouver les résultats dans l'onglet Trajectoire, analyse et conclusion</t>
   </si>
   <si>
-    <t>7- Quelles sont les principaux apprentissages que vous retirez de ce BE ?</t>
-  </si>
-  <si>
     <t>8- Quels sont les biais de ce bilan CO2 simplifié ?</t>
   </si>
   <si>
     <t>9- Comment l'améliorer ?</t>
   </si>
   <si>
-    <t>Electricité</t>
-  </si>
-  <si>
     <t>Véhicules</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>1er poste d'émission ?</t>
@@ -4767,9 +5067,6 @@
     </r>
   </si>
   <si>
-    <t>Trajectoire GIEC : Neutralité carbone en 2050</t>
-  </si>
-  <si>
     <t xml:space="preserve">les 10% les plus riches de la population mondiale sont responsables de 52% des émissions de CO2 cumulées </t>
   </si>
   <si>
@@ -4795,9 +5092,6 @@
   </si>
   <si>
     <t>Carbon law : Rockström &amp; al.  2017</t>
-  </si>
-  <si>
-    <t>Bilan et trajectoire Energétique annuel (kWh/an)</t>
   </si>
   <si>
     <t>Carbon law:</t>
@@ -4827,9 +5121,6 @@
     <t>Classe Energétique</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emissions CO2 </t>
   </si>
   <si>
@@ -4850,6 +5141,478 @@
   <si>
     <t>J2</t>
   </si>
+  <si>
+    <t>Bilan et trajectoire Energétique annuel (kWh/an/pers.)</t>
+  </si>
+  <si>
+    <t>Nouveau rapport OXFAM 2023</t>
+  </si>
+  <si>
+    <t>En France, les 1% les plus riches émettent en moyenne chaque année plus de dix fois plus de CO2 (40,2 tonnes) qu’une personne parmi la moitié la plus pauvre (3,8 tonnes).</t>
+  </si>
+  <si>
+    <t>les 10% les plus riches sont responsables de 50% des émissions humaines de CO2 liées à la consommation, tandis que les 50% les plus pauvres sont à l’origine de 8% du total mondial. (rien de nouveau)</t>
+  </si>
+  <si>
+    <t>TCO2/an/pers. En moyenne en France</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/environment/2023/nov/20/richest-1-account-for-more-carbon-emissions-than-poorest-66-report-says</t>
+  </si>
+  <si>
+    <t>https://www.oxfamfrance.org/rapports/egalite-climatique-une-planete-pour-les-99/</t>
+  </si>
+  <si>
+    <t>Rapport et Figures :</t>
+  </si>
+  <si>
+    <t>https://www.oxfamfrance.org/wp-content/uploads/2023/11/Focus-France-rapport-inegalites-et-climat.pdf</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>Analyse A. Barrau</t>
+  </si>
+  <si>
+    <t>Catastrophe écologique : bilan et perspective. Aurélien Barrau à l'Université de Genève.</t>
+  </si>
+  <si>
+    <t>Déconsommation individuelle ou déproduction collective</t>
+  </si>
+  <si>
+    <t>Où j'achète ce que je mange ?</t>
+  </si>
+  <si>
+    <t>Comment j'habite le monde ?</t>
+  </si>
+  <si>
+    <t>Comment et combien je me déplace ?</t>
+  </si>
+  <si>
+    <t>Comment je me nourris ?</t>
+  </si>
+  <si>
+    <t>Combien je prélève collectivement sur le monde ?</t>
+  </si>
+  <si>
+    <t>Combien je prélève individuellement sur le monde ?</t>
+  </si>
+  <si>
+    <t>Moyenne en France en 2020 (consommation intérieure + importations - exportations)</t>
+  </si>
+  <si>
+    <t>Pour aller plus loin dans l'analyse :</t>
+  </si>
+  <si>
+    <t>7- Quels sont vos principaux apprentissages dans ce BE ?</t>
+  </si>
+  <si>
+    <t>C'est l'heure du bilan pour le mois de juillet 2022 (6 avions suivis):</t>
+  </si>
+  <si>
+    <t>- nombre de vols: 53 ✈️</t>
+  </si>
+  <si>
+    <t>- 123 heures de vol ⏱️</t>
+  </si>
+  <si>
+    <t>- vol le plus court: 20min 🤡</t>
+  </si>
+  <si>
+    <t>- CO2 émis: 520 tonnes 🔥🔥🔥</t>
+  </si>
+  <si>
+    <t>C'est l'équivalent des émissions d'un français moyen pendant 52 ans, 1/2 siècle !</t>
+  </si>
+  <si>
+    <t>[1/7] pic.twitter.com/FAhm1DrOCy</t>
+  </si>
+  <si>
+    <t>— I Fly Bernard (@i_fly_Bernard) August 1, 2022</t>
+  </si>
+  <si>
+    <t>Comment vols Combien de vols pour les très riches ?</t>
+  </si>
+  <si>
+    <t>Vols/an</t>
+  </si>
+  <si>
+    <t>(extrapolation de l'analyse ci-dessous)</t>
+  </si>
+  <si>
+    <t>heures de vol/an</t>
+  </si>
+  <si>
+    <t>Taux de décroissance annuelle de consommation des services publics de 2040 à 2050</t>
+  </si>
+  <si>
+    <t>Taux de décroissance annuelle de consommation des services publics de 2030 à 2040</t>
+  </si>
+  <si>
+    <t>Taux de décroissance annuelle de consommation des services publics d'aujourd'hui à 2030</t>
+  </si>
+  <si>
+    <t>Largeur de votre voiture</t>
+  </si>
+  <si>
+    <t>Hauteur de votre voiture</t>
+  </si>
+  <si>
+    <t>Rendement moteur</t>
+  </si>
+  <si>
+    <t>Consommation moyenne</t>
+  </si>
+  <si>
+    <t>Vitesse moyenne</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>Coeff. de traînée aérodynamique</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Masse de votre voiture</t>
+  </si>
+  <si>
+    <t>Wh/km</t>
+  </si>
+  <si>
+    <t>Estimer la consommation de votre voiture (Calculette)</t>
+  </si>
+  <si>
+    <t>Structure d'achat</t>
+  </si>
+  <si>
+    <t>Guide : remplir les cases en jaune (onglets Data, 2030, 2040, 2050) et lire les résultats dans les onglets bilan</t>
+  </si>
+  <si>
+    <t>Quelques questions soulevées lors de la création de cette feuille :</t>
+  </si>
+  <si>
+    <t>Ceci est impossible même sans compter les importations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 petite voiture essence de 6L/100km et 8 000 km/an/p (16 000 km/an pour la famille) consomme déjà </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.4TCO2/an</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'image du bilan CO2 de BFMTV annonce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.6TCO2/an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les 50% les plus pauvres !!! (voir ci-dessus)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le nouveau bilan OXFAM 2023 est plus réaliste avec </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.8TCO2/an/p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pour les 50% les plus pauvres même si cela reste faible / 2T CO2 annoncé par Le Shift Project pour les services publics !</t>
+    </r>
+  </si>
+  <si>
+    <t>Q : Analyser la méthodologie OXFAM 2023 pour comprendre les hypothèses d'obtention de ce chiffre ?</t>
+  </si>
+  <si>
+    <t>Trajectoire GIEC : de neutralité carbone en 2050</t>
+  </si>
+  <si>
+    <t>Références bibliographiques :</t>
+  </si>
+  <si>
+    <t>Bilan GES ADEME - France</t>
+  </si>
+  <si>
+    <t>https://bilans-ges.ademe.fr/</t>
+  </si>
+  <si>
+    <t>Electricité</t>
+  </si>
+  <si>
+    <t>Chauffage</t>
+  </si>
+  <si>
+    <t>kgCO2e/kWh</t>
+  </si>
+  <si>
+    <t>Eau chaude sanitaire</t>
+  </si>
+  <si>
+    <t>Gaz Naturel</t>
+  </si>
+  <si>
+    <t>Tous usages</t>
+  </si>
+  <si>
+    <t>GPL</t>
+  </si>
+  <si>
+    <t>Fioul</t>
+  </si>
+  <si>
+    <t>ENR</t>
+  </si>
+  <si>
+    <t>Source : https://theshiftproject.org/wp-content/uploads/2021/11/Rapport-technique-Bilan-Carbone-Sante-France.pdf</t>
+  </si>
+  <si>
+    <t>Selon l’ABC, les services sociétaux publics sont à l’origine de 1 358 kgCO2e/hab répartis comme suit :</t>
+  </si>
+  <si>
+    <r>
+      <t>411 kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> liés aux infrastructures publiques (génie civil, services d’architecture et de contrôle du bâti) ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>365 kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les activités de santé, d’action sociale et d’emploi (la vente de médicaments remboursés en pharmacie est incluse dans ce résultat) ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>275 kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour l’enseignement et la recherche ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>259 kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relatifs au fonctionnement de l’administration, de la défense et de la sécurité sociale ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">48 kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>issus du fonctionnement du réseau d’eau potable, du traitement des eaux usées et des déchets dangereux, ainsi qu’à la décontamination des sites pollués.</t>
+    </r>
+  </si>
+  <si>
+    <t>Services sociaux publics</t>
+  </si>
+  <si>
+    <t>Services sociaux marchands</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">À cela s’ajoutent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>197 kgCO2e/hab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> engendrés par les services sociétaux marchands répartis comme suit :</t>
+    </r>
+  </si>
+  <si>
+    <t>67 kg pour les banques, les assurances et le juridique ;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">53 kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pour les services postaux et de télécommunications ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40 kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour la fabrication de matériel de transport (hors automobile) ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20 kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les activités associatives (professionnelles, politiques, culturelles et religieuses) ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14 kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les services supports aux transports ;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour les services funéraires et de sécurité des systèmes tels que l’alarme incendie.</t>
+    </r>
+  </si>
+  <si>
+    <t>1,3 TCO2/an/p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selon Bon Pote : </t>
+  </si>
+  <si>
+    <t>https://bonpote.com/empreinte-carbone-des-services-publics/</t>
+  </si>
 </sst>
 </file>
 
@@ -4858,7 +5621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5114,8 +5877,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5137,6 +5938,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6593,7 +7400,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6635,9 +7442,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -6649,9 +7453,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6692,13 +7493,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6783,12 +7578,67 @@
     <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1360"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="1360" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1361">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -8487,19 +9337,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.51205685412644286</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4647742677566448E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25789754754960353</c:v>
+                  <c:v>4.5825486503452605E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10269892782319354</c:v>
+                  <c:v>0.75329566854990582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10269892782319354</c:v>
+                  <c:v>0.20087884494664157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8536,9 +9386,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.63932479860340785"/>
+          <c:x val="0.57465967158262254"/>
           <c:y val="0.29774023038786818"/>
-          <c:w val="0.27522485497626886"/>
+          <c:w val="0.33988998199705406"/>
           <c:h val="0.50162583843686204"/>
         </c:manualLayout>
       </c:layout>
@@ -8560,7 +9410,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -8851,16 +9701,16 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19.474399999999999</c:v>
+                  <c:v>7.9649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.966601741215138</c:v>
+                  <c:v>7.8473396737500005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.415025151176883</c:v>
+                  <c:v>7.3989925363506845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.230683468425836</c:v>
+                  <c:v>7.1305505435879288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9296,16 +10146,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.9719999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9719999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9719999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9719999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9368,16 +10218,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.48</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.15E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9440,16 +10290,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.0223999999999993</c:v>
+                  <c:v>0.36499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5111999999999997</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2555999999999998</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44530000000000008</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9512,16 +10362,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9584,16 +10434,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2034017412151405</c:v>
+                  <c:v>1.1173396737499999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58242515117688287</c:v>
+                  <c:v>0.66899253635068379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28188346842583661</c:v>
+                  <c:v>0.40055054358792835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9686,6 +10536,7 @@
         <c:axId val="236048704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10032,7 +10883,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Bilan NRJ'!$A$13:$D$13</c:f>
+              <c:f>'Bilan NRJ'!$A$12:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10099,21 +10950,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Bilan NRJ'!$A$12:$D$12</c:f>
+              <c:f>'Bilan NRJ'!$A$11:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43800.4</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41300.400000000001</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41300.400000000001</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38850.400000000001</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10241,7 +11092,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR" sz="1400"/>
-                  <a:t>kWh/an</a:t>
+                  <a:t>kWh/an/pers.</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10334,10 +11185,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.59814788359566051"/>
-          <c:y val="0.15187419538337177"/>
+          <c:x val="0.64510626139715466"/>
+          <c:y val="0.71877564600199628"/>
           <c:w val="0.25423104894100323"/>
-          <c:h val="0.2771996208807232"/>
+          <c:h val="0.15748142397693249"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12791,14 +13642,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12821,6 +13672,67 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8988A4-EF37-AAD3-23AD-75765FF0145E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14224000" y="1092200"/>
+          <a:ext cx="5626100" cy="2895600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13113,8 +14025,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13139,6 +14051,204 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36830</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ember570" descr="Aucun texte alternatif pour cette image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7285A2D-8722-88B8-B360-77707B669D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8001000"/>
+          <a:ext cx="8571230" cy="5041900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>492222</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A68DB3C-875A-48E9-570C-B9F3A83A8FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7683500"/>
+          <a:ext cx="6550122" cy="5638800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>462602</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFE46C7-9A7D-7E61-B53D-A93564C37D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8661399" y="14300200"/>
+          <a:ext cx="8590603" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>108796</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E76F91-2BF5-BE33-F4EB-C749D8F4133E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6921500" y="7874000"/>
+          <a:ext cx="8325696" cy="5410200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13555,10 +14665,843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FF7EAA-5CC9-6947-BEFB-803634551652}">
+  <dimension ref="A2:W63"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:23" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <f>C6/100*30*0.8*3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
+        <f>C6/100*30*10</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <f>E6*20000</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="Q6" s="93">
+        <v>1800</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="V6" s="38"/>
+      <c r="W6" s="94"/>
+    </row>
+    <row r="7" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <f>C7/100*3*0.8*3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="11">
+        <f>C7/100*3*10</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <f>E7*20000</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="Q7" s="95">
+        <v>1.9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" t="s">
+        <v>135</v>
+      </c>
+      <c r="W7" s="41"/>
+    </row>
+    <row r="8" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <f>C8/100*30*0.8*3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="11">
+        <f>C8/100*30*10</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <f>E8*2000</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="Q8" s="95">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" t="s">
+        <v>136</v>
+      </c>
+      <c r="W8" s="41"/>
+    </row>
+    <row r="9" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <f>C9/100*3*0.8*3/1000</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
+        <f>C9/100*3*10</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <f>E9*2000</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="95">
+        <v>0.4</v>
+      </c>
+      <c r="U9" t="s">
+        <v>143</v>
+      </c>
+      <c r="W9" s="41"/>
+    </row>
+    <row r="10" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
+        <f>C10/100*D10*10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="73">
+        <f>IF(C10=0,100,200000/C10)</f>
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
+        <f>IF(C10=0,0,IF(D10=0,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="95">
+        <v>0.9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>137</v>
+      </c>
+      <c r="W10" s="41"/>
+    </row>
+    <row r="11" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <f>C11*D11/100</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="1">
+        <f>IF(C11=0,99,200000/C11)</f>
+        <v>99</v>
+      </c>
+      <c r="N11" s="1">
+        <f>IF(C11=0,0,IF(D11=0,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="95">
+        <v>130</v>
+      </c>
+      <c r="R11" t="s">
+        <v>142</v>
+      </c>
+      <c r="U11" t="s">
+        <v>140</v>
+      </c>
+      <c r="W11" s="41"/>
+    </row>
+    <row r="12" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
+        <f>C12*D12/100</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="L12" s="1">
+        <f>IF(C12=0,99,200000/C12)</f>
+        <v>99</v>
+      </c>
+      <c r="N12" s="1">
+        <f>IF(C12=0,0,IF(D12=0,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="97">
+        <f>(0.013*Q6*9.8+0.6*Q7*Q8*Q9*(Q11/3.6)^2)/3.6/Q10</f>
+        <v>401.12757201646082</v>
+      </c>
+      <c r="R12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" s="96">
+        <f>Q12*100/10000</f>
+        <v>4.0112757201646083</v>
+      </c>
+      <c r="T12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" t="s">
+        <v>138</v>
+      </c>
+      <c r="W12" s="41"/>
+    </row>
+    <row r="13" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="11">
+        <f>C13*D13/100</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="L13" s="1">
+        <f>IF(C13=0,99,200000/C13)</f>
+        <v>99</v>
+      </c>
+      <c r="N13" s="1">
+        <f>IF(C13=0,0,IF(D13=0,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="95">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W13" s="41"/>
+    </row>
+    <row r="14" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
+        <f>C14*D14/100</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="L14" s="1">
+        <f>IF(C14=0,99,200000/C14)</f>
+        <v>99</v>
+      </c>
+      <c r="N14" s="1">
+        <f>IF(C14=0,0,IF(D14=0,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="98">
+        <f>(0.013*Q6*9.8+0.6*Q7*Q8*Q9*(Q13/3.6)^2)/3.6/Q10</f>
+        <v>195.88065843621402</v>
+      </c>
+      <c r="R14" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" s="99">
+        <f>Q14*100/10000</f>
+        <v>1.9588065843621403</v>
+      </c>
+      <c r="T14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" s="44"/>
+      <c r="W14" s="45"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" ht="21" x14ac:dyDescent="0.2">
+      <c r="A16" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <f>B18*G18/1000</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="11">
+        <f>C18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="11">
+        <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
+        <v>200</v>
+      </c>
+      <c r="G18" s="11">
+        <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80">
+        <f>1-D22-C22</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="48">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
+        <v>6</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="79">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="65"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="C28" s="25">
+        <v>-0.05</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="91">
+        <f>SUM(A6:A14)</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="35">
+        <f>A31/A36</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="92">
+        <f>A18</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35">
+        <f>A32/A36</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="41"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="92">
+        <f>A22</f>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
+        <f>A33/A36</f>
+        <v>4.5825486503452605E-2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="92">
+        <f>A25</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35">
+        <f>A34/A36</f>
+        <v>0.75329566854990582</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="92">
+        <f>A28</f>
+        <v>1.6</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="35">
+        <f>A35/A36</f>
+        <v>0.20087884494664157</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
+        <f>SUM(A31:A35)</f>
+        <v>7.9649999999999999</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB7ED4-95F0-9B4E-93BA-8B579DA96A03}">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13571,29 +15514,23 @@
   <sheetData>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="19">
-        <v>2023</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13608,7 +15545,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="20">
         <f>C6/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
@@ -13621,40 +15558,46 @@
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <f>C7/100*3*0.8*3/1000</f>
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="B7" s="11">
         <f>C7/100*3*10</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10">
         <f>E7*20000</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="18">
-        <v>2</v>
+      <c r="E7" s="17">
+        <v>0</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
+      <c r="J7" s="85">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="20">
         <f>C8/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
@@ -13667,58 +15610,64 @@
         <v>0</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <f>C9/100*3*0.8*3/1000</f>
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="B9" s="11">
         <f>C9/100*3*10</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10">
         <f>E9*2000</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="19">
-        <v>3</v>
+      <c r="E9" s="18">
+        <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+      <c r="J9" s="85">
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="L9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>6.66</v>
+        <v>0</v>
       </c>
       <c r="B10" s="11">
         <f>C10/100*D10*10</f>
-        <v>24000</v>
-      </c>
-      <c r="C10" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D10" s="19">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>7</v>
@@ -13728,17 +15677,17 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="77">
+      <c r="L10" s="73">
         <f>IF(C10=0,100,200000/C10)</f>
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="N10" s="1">
         <f>IF(C10=0,0,IF(D10=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
         <v>0</v>
       </c>
@@ -13746,23 +15695,23 @@
         <f>C11*D11/100</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="1">
-        <f>IF(C11=0,100,200000/C11)</f>
-        <v>100</v>
+      <c r="L11" s="73">
+        <f>IF(C11=0,99,200000/C11)</f>
+        <v>99</v>
       </c>
       <c r="N11" s="1">
         <f>IF(C11=0,0,IF(D11=0,0,1))</f>
@@ -13770,7 +15719,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
         <v>0</v>
       </c>
@@ -13778,23 +15727,23 @@
         <f>C12*D12/100</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
         <v>20</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="L12" s="1">
-        <f>IF(C12=0,100,200000/C12)</f>
-        <v>100</v>
+      <c r="L12" s="73">
+        <f>IF(C12=0,99,200000/C12)</f>
+        <v>99</v>
       </c>
       <c r="N12" s="1">
         <f>IF(C12=0,0,IF(D12=0,0,1))</f>
@@ -13802,7 +15751,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
         <v>0</v>
       </c>
@@ -13810,23 +15759,23 @@
         <f>C13*D13/100</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
         <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="L13" s="1">
-        <f>IF(C13=0,100,200000/C13)</f>
-        <v>100</v>
+      <c r="L13" s="73">
+        <f>IF(C13=0,99,200000/C13)</f>
+        <v>99</v>
       </c>
       <c r="N13" s="1">
         <f>IF(C13=0,0,IF(D13=0,0,1))</f>
@@ -13834,7 +15783,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
         <v>0</v>
       </c>
@@ -13842,10 +15791,10 @@
         <f>C14*D14/100</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
         <v>0.2</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -13856,9 +15805,9 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="L14" s="1">
-        <f>IF(C14=0,100,100000/C14)</f>
-        <v>100</v>
+      <c r="L14" s="73">
+        <f>IF(C14=0,99,200000/C14)</f>
+        <v>99</v>
       </c>
       <c r="N14" s="1">
         <f>IF(C14=0,0,IF(D14=0,0,1))</f>
@@ -13872,8 +15821,8 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
-        <v>19</v>
+      <c r="A16" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -13888,8 +15837,8 @@
       <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="71" t="s">
-        <v>98</v>
+      <c r="D17" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
@@ -13905,30 +15854,27 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <f>B18*G18/1000</f>
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="B18" s="11">
         <f>C18*F18</f>
-        <v>6000</v>
-      </c>
-      <c r="C18" s="19">
-        <v>50</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <f>Data!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="G18" s="11">
         <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="11"/>
@@ -13948,7 +15894,7 @@
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -13967,16 +15913,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -13984,22 +15930,18 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
-        <v>5.0223999999999993</v>
+        <v>0.73</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0.4</v>
-      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="11">
         <f>1-D22-C22</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="F22" s="52">
+        <v>1</v>
+      </c>
+      <c r="F22" s="48">
         <v>2</v>
       </c>
       <c r="J22" s="9"/>
@@ -14015,8 +15957,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>97</v>
+      <c r="A24" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -14029,23 +15971,24 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="24">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
-        <v>2</v>
-      </c>
-      <c r="B25" s="27">
-        <v>0.4</v>
+        <v>6</v>
+      </c>
+      <c r="B25" s="86">
+        <f>Data!B25</f>
+        <v>0.09</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="22">
+        <v>88</v>
+      </c>
+      <c r="D25" s="79">
         <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="F25" s="65"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
@@ -14064,8 +16007,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
-        <v>38</v>
+      <c r="A27" s="70" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -14078,15 +16021,20 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="24">
+        <f>Data!A28*(1+Data!C28)^(2030-Data!E4)</f>
+        <v>1.1173396737499999</v>
+      </c>
+      <c r="C28" s="25">
+        <v>-0.05</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="87"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -14097,151 +16045,161 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="A30" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+      <c r="A31" s="91">
         <f>SUM(A6:A14)</f>
-        <v>9.9719999999999995</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="37">
+        <v>0</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="35">
         <f>A31/A36</f>
-        <v>0.51205685412644286</v>
-      </c>
-      <c r="D31" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="J31" s="43"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="40"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+      <c r="A32" s="92">
         <f>A18</f>
-        <v>0.48</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="37">
+        <v>0</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35">
         <f>A32/A36</f>
-        <v>2.4647742677566448E-2</v>
-      </c>
-      <c r="D32" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="41"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="92">
+        <f>A22</f>
+        <v>0.73</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
+        <f>A33/A36</f>
+        <v>9.3025156339531248E-2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="92">
+        <f>A25</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35">
+        <f>A34/A36</f>
+        <v>0.7645903260783391</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="92">
+        <f>A28</f>
+        <v>1.1173396737499999</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="35">
+        <f>A35/A36</f>
+        <v>0.14238451758212958</v>
+      </c>
+      <c r="D35" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="44">
-        <f>A22</f>
-        <v>5.0223999999999993</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="37">
-        <f>A33/A36</f>
-        <v>0.25789754754960353</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="J33" s="45"/>
-    </row>
-    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="44">
-        <f>A25</f>
-        <v>2</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="37">
-        <f>A34/A36</f>
-        <v>0.10269892782319354</v>
-      </c>
-      <c r="D34" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="J34" s="45"/>
-    </row>
-    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="44">
-        <f>A28</f>
-        <v>2</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="37">
-        <f>A35/A36</f>
-        <v>0.10269892782319354</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="J35" s="45"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="53">
+      <c r="A36" s="49">
         <f>SUM(A31:A35)</f>
-        <v>19.474399999999999</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="J36" s="45"/>
+        <v>7.8473396737500005</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="J36" s="41"/>
     </row>
     <row r="37" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
+      <c r="A37" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -14266,12 +16224,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB7ED4-95F0-9B4E-93BA-8B579DA96A03}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD5815F-8053-A84D-A818-E23F052673C9}">
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:N14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14284,22 +16242,22 @@
   <sheetData>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="53" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14315,7 +16273,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="20">
         <f>C6/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
@@ -14328,40 +16286,42 @@
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
+      <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <f>C7/100*3*0.8*3/1000</f>
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="B7" s="11">
         <f>C7/100*3*10</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10">
         <f>E7*20000</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="18">
-        <v>2</v>
-      </c>
+      <c r="E7" s="17"/>
       <c r="F7" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
+      <c r="J7" s="85">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="20">
         <f>C8/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
@@ -14374,58 +16334,58 @@
         <v>0</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <f>C9/100*3*0.8*3/1000</f>
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="B9" s="11">
         <f>C9/100*3*10</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10">
         <f>E9*2000</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="19">
-        <v>3</v>
-      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+      <c r="J9" s="85">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="L9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>6.66</v>
+        <v>0</v>
       </c>
       <c r="B10" s="11">
         <f>C10/100*D10*10</f>
-        <v>24000</v>
-      </c>
-      <c r="C10" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D10" s="19">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18">
+        <v>5</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>7</v>
@@ -14435,17 +16395,17 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="77">
+      <c r="L10" s="73">
         <f>IF(C10=0,100,200000/C10)</f>
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="N10" s="1">
         <f>IF(C10=0,0,IF(D10=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
         <v>0</v>
       </c>
@@ -14453,23 +16413,21 @@
         <f>C11*D11/100</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18">
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="1">
-        <f>IF(C11=0,100,200000/C11)</f>
-        <v>100</v>
+      <c r="L11" s="73">
+        <f>IF(C11=0,99,200000/C11)</f>
+        <v>99</v>
       </c>
       <c r="N11" s="1">
         <f>IF(C11=0,0,IF(D11=0,0,1))</f>
@@ -14477,7 +16435,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
         <v>0</v>
       </c>
@@ -14485,23 +16443,21 @@
         <f>C12*D12/100</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
-        <v>20</v>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18">
+        <v>15</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="L12" s="1">
-        <f>IF(C12=0,100,200000/C12)</f>
-        <v>100</v>
+      <c r="L12" s="73">
+        <f>IF(C12=0,99,200000/C12)</f>
+        <v>99</v>
       </c>
       <c r="N12" s="1">
         <f>IF(C12=0,0,IF(D12=0,0,1))</f>
@@ -14509,7 +16465,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
         <v>0</v>
       </c>
@@ -14517,23 +16473,21 @@
         <f>C13*D13/100</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18">
         <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="L13" s="1">
-        <f>IF(C13=0,100,200000/C13)</f>
-        <v>100</v>
+      <c r="L13" s="73">
+        <f>IF(C13=0,99,200000/C13)</f>
+        <v>99</v>
       </c>
       <c r="N13" s="1">
         <f>IF(C13=0,0,IF(D13=0,0,1))</f>
@@ -14541,7 +16495,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
         <v>0</v>
       </c>
@@ -14549,10 +16503,8 @@
         <f>C14*D14/100</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18">
         <v>0.2</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -14563,9 +16515,9 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="L14" s="1">
-        <f>IF(C14=0,100,100000/C14)</f>
-        <v>100</v>
+      <c r="L14" s="73">
+        <f>IF(C14=0,99,200000/C14)</f>
+        <v>99</v>
       </c>
       <c r="N14" s="1">
         <f>IF(C14=0,0,IF(D14=0,0,1))</f>
@@ -14579,8 +16531,8 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
-        <v>19</v>
+      <c r="A16" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -14596,7 +16548,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
@@ -14612,30 +16564,24 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <f>B18*G18/1000</f>
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="B18" s="11">
         <f>C18*F18</f>
-        <v>3500</v>
-      </c>
-      <c r="C18" s="19">
-        <v>50</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G18" s="11">
         <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="11"/>
@@ -14655,7 +16601,7 @@
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -14674,16 +16620,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -14691,23 +16637,23 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
-        <v>2.5111999999999997</v>
+        <v>0.73</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0.4</v>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
       </c>
       <c r="E22" s="11">
         <f>1-D22-C22</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="F22" s="52">
         <v>1</v>
+      </c>
+      <c r="F22" s="48">
+        <v>2</v>
       </c>
       <c r="J22" s="9"/>
     </row>
@@ -14722,8 +16668,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>97</v>
+      <c r="A24" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -14736,23 +16682,24 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="24">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
+        <v>6</v>
+      </c>
+      <c r="B25" s="86">
+        <f>Data!B25</f>
+        <v>0.09</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="79">
         <v>1</v>
       </c>
-      <c r="B25" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0.5</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="69"/>
+        <v>87</v>
+      </c>
+      <c r="F25" s="65"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
@@ -14771,8 +16718,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
-        <v>38</v>
+      <c r="A27" s="70" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -14785,12 +16732,16 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <f>2*0.93^(2030-Data!E4)</f>
-        <v>1.2034017412151405</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="24">
+        <f>'2030'!A28*(1+'2030'!C28)^10</f>
+        <v>0.66899253635068379</v>
+      </c>
+      <c r="C28" s="25">
+        <v>-0.05</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -14799,24 +16750,167 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J30" s="9"/>
+    <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J31" s="9"/>
+    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="91">
+        <f>SUM(A6:A14)</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="35">
+        <f>A31/A36</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="40"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J32" s="9"/>
+    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="92">
+        <f>A18</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35">
+        <f>A32/A36</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="41"/>
       <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="92">
+        <f>A22</f>
+        <v>0.73</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
+        <f>A33/A36</f>
+        <v>9.8662080872979105E-2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="92">
+        <f>A25</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35">
+        <f>A34/A36</f>
+        <v>0.8109212126546228</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="92">
+        <f>A28</f>
+        <v>0.66899253635068379</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="35">
+        <f>A35/A36</f>
+        <v>9.0416706472398051E-2</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
+        <f>SUM(A31:A35)</f>
+        <v>7.3989925363506845</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -14841,12 +16935,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD5815F-8053-A84D-A818-E23F052673C9}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99EDEFF-C087-8B47-A63C-A9E28E2EDFB3}">
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:N14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14859,22 +16953,22 @@
   <sheetData>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="53" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14890,7 +16984,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="20">
         <f>C6/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
@@ -14903,40 +16997,42 @@
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
+      <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <f>C7/100*3*0.8*3/1000</f>
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="B7" s="11">
         <f>C7/100*3*10</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10">
         <f>E7*20000</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="18">
-        <v>2</v>
-      </c>
+      <c r="E7" s="17"/>
       <c r="F7" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
+      <c r="J7" s="85">
+        <v>0.63</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="20">
         <f>C8/100*30*0.8*3/1000</f>
         <v>0</v>
       </c>
@@ -14949,58 +17045,59 @@
         <v>0</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
+      <c r="K8" s="84"/>
     </row>
     <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <f>C9/100*3*0.8*3/1000</f>
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="B9" s="11">
         <f>C9/100*3*10</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10">
         <f>E9*2000</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="19">
-        <v>3</v>
-      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+      <c r="J9" s="85">
+        <v>0.63</v>
+      </c>
+      <c r="K9" s="83" t="s">
+        <v>107</v>
+      </c>
       <c r="L9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>6.66</v>
+        <v>0</v>
       </c>
       <c r="B10" s="11">
         <f>C10/100*D10*10</f>
-        <v>24000</v>
-      </c>
-      <c r="C10" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D10" s="19">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18">
+        <v>5</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>7</v>
@@ -15010,17 +17107,17 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="77">
+      <c r="L10" s="73">
         <f>IF(C10=0,100,200000/C10)</f>
-        <v>6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="N10" s="1">
         <f>IF(C10=0,0,IF(D10=0,0,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
         <v>0</v>
       </c>
@@ -15028,23 +17125,21 @@
         <f>C11*D11/100</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18">
         <v>25</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="L11" s="1">
-        <f>IF(C11=0,100,200000/C11)</f>
-        <v>100</v>
+      <c r="L11" s="73">
+        <f>IF(C11=0,99,200000/C11)</f>
+        <v>99</v>
       </c>
       <c r="N11" s="1">
         <f>IF(C11=0,0,IF(D11=0,0,1))</f>
@@ -15052,7 +17147,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
         <v>0</v>
       </c>
@@ -15060,23 +17155,21 @@
         <f>C12*D12/100</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
-        <v>20</v>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18">
+        <v>15</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="L12" s="1">
-        <f>IF(C12=0,100,200000/C12)</f>
-        <v>100</v>
+      <c r="L12" s="73">
+        <f>IF(C12=0,99,200000/C12)</f>
+        <v>99</v>
       </c>
       <c r="N12" s="1">
         <f>IF(C12=0,0,IF(D12=0,0,1))</f>
@@ -15084,7 +17177,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
         <v>0</v>
       </c>
@@ -15092,23 +17185,21 @@
         <f>C13*D13/100</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18">
         <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="L13" s="1">
-        <f>IF(C13=0,100,200000/C13)</f>
-        <v>100</v>
+      <c r="L13" s="73">
+        <f>IF(C13=0,99,200000/C13)</f>
+        <v>99</v>
       </c>
       <c r="N13" s="1">
         <f>IF(C13=0,0,IF(D13=0,0,1))</f>
@@ -15116,7 +17207,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
         <v>0</v>
       </c>
@@ -15124,10 +17215,8 @@
         <f>C14*D14/100</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18">
         <v>0.2</v>
       </c>
       <c r="E14" s="11" t="s">
@@ -15138,9 +17227,9 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="L14" s="1">
-        <f>IF(C14=0,100,100000/C14)</f>
-        <v>100</v>
+      <c r="L14" s="73">
+        <f>IF(C14=0,99,200000/C14)</f>
+        <v>99</v>
       </c>
       <c r="N14" s="1">
         <f>IF(C14=0,0,IF(D14=0,0,1))</f>
@@ -15154,8 +17243,8 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
-        <v>19</v>
+      <c r="A16" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -15171,7 +17260,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>13</v>
@@ -15187,30 +17276,24 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <f>B18*G18/1000</f>
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="B18" s="11">
         <f>C18*F18</f>
-        <v>3500</v>
-      </c>
-      <c r="C18" s="19">
-        <v>50</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G18" s="11">
         <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="11"/>
@@ -15230,7 +17313,7 @@
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -15249,16 +17332,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -15266,23 +17349,23 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
-        <v>1.2555999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0.4</v>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
       </c>
       <c r="E22" s="11">
         <f>1-D22-C22</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="F22" s="52">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="F22" s="48">
+        <v>2</v>
       </c>
       <c r="J22" s="9"/>
     </row>
@@ -15297,8 +17380,8 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>97</v>
+      <c r="A24" s="71" t="s">
+        <v>89</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
@@ -15311,24 +17394,23 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="24">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="27">
-        <v>0.4</v>
+        <v>6</v>
+      </c>
+      <c r="B25" s="86">
+        <f>Data!B25</f>
+        <v>0.09</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0.25</v>
+        <v>88</v>
+      </c>
+      <c r="D25" s="79">
+        <v>1</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="9"/>
+        <v>87</v>
+      </c>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -15346,8 +17428,8 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
-        <v>38</v>
+      <c r="A27" s="70" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -15360,9 +17442,9 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <f>'2030'!A28*0.93^10</f>
-        <v>0.58242515117688287</v>
+      <c r="A28" s="24">
+        <f>'2040'!A28*(1+'2040'!C28)^10</f>
+        <v>0.40055054358792835</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -15374,24 +17456,167 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J30" s="9"/>
+    <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J31" s="9"/>
+    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="91">
+        <f>SUM(A6:A14)</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="35">
+        <f>A31/A36</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="40"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J32" s="9"/>
+    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="92">
+        <f>A18</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="35">
+        <f>A32/A36</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="41"/>
       <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="92">
+        <f>A22</f>
+        <v>0.73</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
+        <f>A33/A36</f>
+        <v>0.10237638672324463</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="92">
+        <f>A25</f>
+        <v>6</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35">
+        <f>A34/A36</f>
+        <v>0.84144975388968191</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="92">
+        <f>A28</f>
+        <v>0.40055054358792835</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="35">
+        <f>A35/A36</f>
+        <v>5.6173859387073435E-2</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
+        <f>SUM(A31:A35)</f>
+        <v>7.1305505435879288</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="J36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -15416,585 +17641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99EDEFF-C087-8B47-A63C-A9E28E2EDFB3}">
-  <dimension ref="A2:N63"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <f>C6/100*30*0.8*3/1000</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
-        <f>C6/100*30*10</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
-        <f>E6*20000</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <f>C7/100*3*0.8*3/1000</f>
-        <v>2.88</v>
-      </c>
-      <c r="B7" s="11">
-        <f>C7/100*3*10</f>
-        <v>12000</v>
-      </c>
-      <c r="C7" s="10">
-        <f>E7*20000</f>
-        <v>40000</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="18">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <f>C8/100*30*0.8*3/1000</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
-        <f>C8/100*30*10</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <f>E8*2000</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <f>C9/100*3*0.8*3/1000</f>
-        <v>0.432</v>
-      </c>
-      <c r="B9" s="11">
-        <f>C9/100*3*10</f>
-        <v>1800</v>
-      </c>
-      <c r="C9" s="10">
-        <f>E9*2000</f>
-        <v>6000</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="19">
-        <v>3</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="L9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>6.66</v>
-      </c>
-      <c r="B10" s="11">
-        <f>C10/100*D10*10</f>
-        <v>24000</v>
-      </c>
-      <c r="C10" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D10" s="19">
-        <v>8</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="L10" s="77">
-        <f>IF(C10=0,100,200000/C10)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="N10" s="1">
-        <f>IF(C10=0,0,IF(D10=0,0,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <f>C11/100*D11*0.08/1000 + N11*12/L11</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
-        <f>C11*D11/100</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>25</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="L11" s="1">
-        <f>IF(C11=0,100,200000/C11)</f>
-        <v>100</v>
-      </c>
-      <c r="N11" s="1">
-        <f>IF(C11=0,0,IF(D11=0,0,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <f>C12/100*D12*0.08/1000 + N12*6/L12</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
-        <f>C12*D12/100</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="L12" s="1">
-        <f>IF(C12=0,100,200000/C12)</f>
-        <v>100</v>
-      </c>
-      <c r="N12" s="1">
-        <f>IF(C12=0,0,IF(D12=0,0,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <f>C13/100*D13*0.08/1000 + N13*2/L13</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="11">
-        <f>C13*D13/100</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="L13" s="1">
-        <f>IF(C13=0,100,200000/C13)</f>
-        <v>100</v>
-      </c>
-      <c r="N13" s="1">
-        <f>IF(C13=0,0,IF(D13=0,0,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <f>C14/100*D14*0.08/1000 + N14*0.2/L14</f>
-        <v>0</v>
-      </c>
-      <c r="B14" s="11">
-        <f>C14*D14/100</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="L14" s="1">
-        <f>IF(C14=0,100,100000/C14)</f>
-        <v>100</v>
-      </c>
-      <c r="N14" s="1">
-        <f>IF(C14=0,0,IF(D14=0,0,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <f>B18*G18/1000</f>
-        <v>3.15E-2</v>
-      </c>
-      <c r="B18" s="11">
-        <f>C18*F18</f>
-        <v>1050</v>
-      </c>
-      <c r="C18" s="19">
-        <v>30</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="11">
-        <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
-        <v>35</v>
-      </c>
-      <c r="G18" s="11">
-        <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
-        <v>0.03</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
-        <v>0.44530000000000008</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="11">
-        <f>1-D22-C22</f>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="F22" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <f>'2040'!A28*0.93^10</f>
-        <v>0.28188346842583661</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A0CFFB-9B87-8C46-9710-42FD174CB3FE}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16008,8 +17660,8 @@
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>45</v>
+      <c r="A3" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -16025,17 +17677,17 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="29">
         <f>Data!E4</f>
         <v>2023</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>2030</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>2040</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>2050</v>
       </c>
       <c r="J4" s="9"/>
@@ -16044,48 +17696,48 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="50">
         <f>SUM(Data!A6:A14)</f>
-        <v>9.9719999999999995</v>
-      </c>
-      <c r="B5" s="54">
+        <v>0</v>
+      </c>
+      <c r="B5" s="50">
         <f>SUM('2030'!A6:A14)</f>
-        <v>9.9719999999999995</v>
-      </c>
-      <c r="C5" s="54">
+        <v>0</v>
+      </c>
+      <c r="C5" s="50">
         <f>SUM('2040'!A6:A14)</f>
-        <v>9.9719999999999995</v>
-      </c>
-      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+      <c r="D5" s="50">
         <f>SUM('2050'!A6:A14)</f>
-        <v>9.9719999999999995</v>
-      </c>
-      <c r="E5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="29"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="50">
         <f>Data!A18</f>
-        <v>0.48</v>
-      </c>
-      <c r="B6" s="54">
+        <v>0</v>
+      </c>
+      <c r="B6" s="50">
         <f>'2030'!A18</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C6" s="54">
+        <v>0</v>
+      </c>
+      <c r="C6" s="50">
         <f>'2040'!A18</f>
-        <v>0.105</v>
-      </c>
-      <c r="D6" s="54">
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
         <f>'2050'!A18</f>
-        <v>3.15E-2</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="4"/>
       <c r="J6" s="9"/>
@@ -16093,150 +17745,150 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="50">
         <f>Data!A22</f>
-        <v>5.0223999999999993</v>
-      </c>
-      <c r="B7" s="54">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="B7" s="50">
         <f>'2030'!A22</f>
-        <v>2.5111999999999997</v>
-      </c>
-      <c r="C7" s="54">
+        <v>0.73</v>
+      </c>
+      <c r="C7" s="50">
         <f>'2040'!A22</f>
-        <v>1.2555999999999998</v>
-      </c>
-      <c r="D7" s="54">
+        <v>0.73</v>
+      </c>
+      <c r="D7" s="50">
         <f>'2050'!A22</f>
-        <v>0.44530000000000008</v>
+        <v>0.73</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="50">
         <f>Data!A25</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="54">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50">
         <f>'2030'!A25</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="54">
+        <v>6</v>
+      </c>
+      <c r="C8" s="50">
         <f>'2040'!A25</f>
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="54">
+        <v>6</v>
+      </c>
+      <c r="D8" s="50">
         <f>'2050'!A25</f>
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="50">
         <f>Data!A28</f>
-        <v>2</v>
-      </c>
-      <c r="B9" s="54">
+        <v>1.6</v>
+      </c>
+      <c r="B9" s="50">
         <f>'2030'!A28</f>
-        <v>1.2034017412151405</v>
-      </c>
-      <c r="C9" s="54">
+        <v>1.1173396737499999</v>
+      </c>
+      <c r="C9" s="50">
         <f>'2040'!A28</f>
-        <v>0.58242515117688287</v>
-      </c>
-      <c r="D9" s="54">
+        <v>0.66899253635068379</v>
+      </c>
+      <c r="D9" s="50">
         <f>'2050'!A28</f>
-        <v>0.28188346842583661</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="20"/>
+        <v>0.40055054358792835</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="11"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="11"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
+      <c r="A12" s="60">
         <f>SUM(A5:A9)</f>
-        <v>19.474399999999999</v>
-      </c>
-      <c r="B12" s="64">
+        <v>7.9649999999999999</v>
+      </c>
+      <c r="B12" s="60">
         <f>SUM(B5:B9)</f>
-        <v>14.966601741215138</v>
-      </c>
-      <c r="C12" s="64">
+        <v>7.8473396737500005</v>
+      </c>
+      <c r="C12" s="60">
         <f>SUM(C5:C9)</f>
-        <v>12.415025151176883</v>
-      </c>
-      <c r="D12" s="64">
+        <v>7.3989925363506845</v>
+      </c>
+      <c r="D12" s="60">
         <f>SUM(D5:D9)</f>
-        <v>11.230683468425836</v>
-      </c>
-      <c r="E12" s="33" t="s">
+        <v>7.1305505435879288</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="31">
         <v>6</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="31">
         <v>3</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="31">
         <v>1.5</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>86</v>
+      <c r="A14" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>79</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -16245,117 +17897,125 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <f>A12*1000/365</f>
+        <v>21.82191780821918</v>
+      </c>
+      <c r="B16" s="27">
+        <f>B12*1000/365</f>
+        <v>21.499560750000001</v>
+      </c>
+      <c r="C16" s="27">
+        <f>C12*1000/365</f>
+        <v>20.271212428358041</v>
+      </c>
+      <c r="D16" s="27">
+        <f>D12*1000/365</f>
+        <v>19.535754913939531</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <f>A12*1000/365</f>
-        <v>53.354520547945199</v>
-      </c>
-      <c r="B17" s="29">
-        <f>B12*1000/365</f>
-        <v>41.004388332096269</v>
-      </c>
-      <c r="C17" s="29">
-        <f>C12*1000/365</f>
-        <v>34.013767537470912</v>
-      </c>
-      <c r="D17" s="29">
-        <f>D12*1000/365</f>
-        <v>30.7689958039064</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+    <row r="17" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+    <row r="18" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="9"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="E21" s="3"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="E20" s="72"/>
+    </row>
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="C24" s="29"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="30"/>
+      <c r="E22" s="69"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="E23" s="70"/>
+    </row>
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="9"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-    </row>
-    <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A29" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" display="Vidéo" xr:uid="{9F73ADB3-E727-3F43-889B-9C0B855D3455}"/>
-    <hyperlink ref="A20" r:id="rId2" display="Scientific paper" xr:uid="{B0B94583-250A-3E49-976A-E032385D33B7}"/>
+    <hyperlink ref="A28" r:id="rId1" display="Vidéo" xr:uid="{9F73ADB3-E727-3F43-889B-9C0B855D3455}"/>
+    <hyperlink ref="A29" r:id="rId2" display="Scientific paper" xr:uid="{B0B94583-250A-3E49-976A-E032385D33B7}"/>
+    <hyperlink ref="A30" r:id="rId3" xr:uid="{CD9A8A43-677E-7443-A15B-79FAC051C927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78739B43-9EBE-AA49-8CCD-90D99ED61241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78739B43-9EBE-AA49-8CCD-90D99ED61241}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16369,8 +18029,8 @@
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>89</v>
+      <c r="A3" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="11"/>
@@ -16385,18 +18045,18 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+    <row r="4" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <f>Data!E4</f>
         <v>2023</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>2030</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>2040</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>2050</v>
       </c>
       <c r="J4" s="9"/>
@@ -16404,290 +18064,283 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67">
+    <row r="5" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63">
         <f>SUM(Data!B6:B14)</f>
-        <v>37800</v>
-      </c>
-      <c r="B5" s="67">
+        <v>0</v>
+      </c>
+      <c r="B5" s="63">
         <f>SUM('2030'!B6:B14)</f>
-        <v>37800</v>
-      </c>
-      <c r="C5" s="67">
+        <v>0</v>
+      </c>
+      <c r="C5" s="63">
         <f>SUM('2040'!B6:B14)</f>
-        <v>37800</v>
-      </c>
-      <c r="D5" s="67">
+        <v>0</v>
+      </c>
+      <c r="D5" s="63">
         <f>SUM('2050'!B6:B14)</f>
-        <v>37800</v>
-      </c>
-      <c r="E5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="29"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
+    <row r="6" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63">
         <f>Data!B18</f>
-        <v>6000</v>
-      </c>
-      <c r="B6" s="67">
+        <v>0</v>
+      </c>
+      <c r="B6" s="63">
         <f>'2030'!B18</f>
-        <v>3500</v>
-      </c>
-      <c r="C6" s="67">
+        <v>0</v>
+      </c>
+      <c r="C6" s="63">
         <f>'2040'!B18</f>
-        <v>3500</v>
-      </c>
-      <c r="D6" s="67">
+        <v>0</v>
+      </c>
+      <c r="D6" s="63">
         <f>'2050'!B18</f>
-        <v>1050</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="4"/>
       <c r="J6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+    <row r="7" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63">
         <f>Data!B22</f>
         <v>0</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="63">
         <f>'2030'!B22</f>
         <v>0</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="63">
         <f>'2040'!B22</f>
         <v>0</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="63">
         <f>'2050'!B22</f>
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67">
+    <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63">
         <f>Data!B25</f>
-        <v>0.4</v>
-      </c>
-      <c r="B8" s="67">
+        <v>0.09</v>
+      </c>
+      <c r="B8" s="63">
         <f>'2030'!B25</f>
-        <v>0.4</v>
-      </c>
-      <c r="C8" s="67">
+        <v>0.09</v>
+      </c>
+      <c r="C8" s="63">
         <f>'2040'!B25</f>
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="67">
+        <v>0.09</v>
+      </c>
+      <c r="D8" s="63">
         <f>'2050'!B25</f>
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+    <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
         <f>Data!B28</f>
         <v>0</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="63">
         <f>'2030'!B28</f>
         <v>0</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="63">
         <f>'2040'!B28</f>
         <v>0</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="63">
         <f>'2050'!B28</f>
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="20"/>
+      <c r="E9" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="11"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="11"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <f>SUM(A5:A9)</f>
+        <v>0.09</v>
+      </c>
+      <c r="B11" s="60">
+        <f>SUM(B5:B9)</f>
+        <v>0.09</v>
+      </c>
+      <c r="C11" s="60">
+        <f>SUM(C5:C9)</f>
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="60">
+        <f>SUM(D5:D9)</f>
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="L11" s="9"/>
+    </row>
     <row r="12" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
-        <f>SUM(A5:A9)</f>
-        <v>43800.4</v>
-      </c>
-      <c r="B12" s="64">
-        <f>SUM(B5:B9)</f>
-        <v>41300.400000000001</v>
-      </c>
-      <c r="C12" s="64">
-        <f>SUM(C5:C9)</f>
-        <v>41300.400000000001</v>
-      </c>
-      <c r="D12" s="64">
-        <f>SUM(D5:D9)</f>
-        <v>38850.400000000001</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="L12" s="9"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="27">
+        <f>A11/365</f>
+        <v>2.4657534246575342E-4</v>
+      </c>
+      <c r="B13" s="27">
+        <f>B11/365</f>
+        <v>2.4657534246575342E-4</v>
+      </c>
+      <c r="C13" s="27">
+        <f>C11/365</f>
+        <v>2.4657534246575342E-4</v>
+      </c>
+      <c r="D13" s="27">
+        <f>D11/365</f>
+        <v>2.4657534246575342E-4</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="28"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="A14" s="66">
+        <f>40000/365</f>
+        <v>109.58904109589041</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="G14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
-        <f>A12/365</f>
-        <v>120.00109589041097</v>
-      </c>
-      <c r="B15" s="29">
-        <f>B12/365</f>
-        <v>113.15178082191781</v>
-      </c>
-      <c r="C15" s="29">
-        <f>C12/365</f>
-        <v>113.15178082191781</v>
-      </c>
-      <c r="D15" s="29">
-        <f>D12/365</f>
-        <v>106.43945205479453</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="A15" s="66">
+        <f>20000/365</f>
+        <v>54.794520547945204</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="G15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="70">
-        <f>40000/365</f>
-        <v>109.58904109589041</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="G16" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+    <row r="16" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
-        <f>20000/365</f>
-        <v>54.794520547945204</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="G17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-    </row>
+    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="E19" s="16"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="23"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="23"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
     </row>
     <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="C24" s="29"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="30"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="30"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="29"/>
     </row>
     <row r="30" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -16695,15 +18348,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6018974E-1004-8F4A-AB7E-D3FAB4287A3A}">
-  <dimension ref="A2:X35"/>
+  <dimension ref="A2:X154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16738,22 +18392,22 @@
       <c r="X2" s="9"/>
     </row>
     <row r="3" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="A3" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -16767,21 +18421,21 @@
     </row>
     <row r="4" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -16795,23 +18449,23 @@
     </row>
     <row r="5" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -16822,20 +18476,20 @@
       <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
@@ -16846,26 +18500,26 @@
       <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="A7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -16876,20 +18530,20 @@
       <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
@@ -16901,21 +18555,21 @@
     </row>
     <row r="9" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+        <v>32</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
@@ -16926,22 +18580,22 @@
       <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="A10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
@@ -16952,22 +18606,22 @@
       <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="A11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
@@ -16978,20 +18632,20 @@
       <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -17003,21 +18657,21 @@
     </row>
     <row r="13" spans="1:24" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -17030,22 +18684,22 @@
       <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="A14" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -17058,22 +18712,22 @@
       <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="A15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -17086,22 +18740,22 @@
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="A16" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -17114,20 +18768,20 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -17140,24 +18794,24 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="A18" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -17170,74 +18824,73 @@
       <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="33" t="s">
+      <c r="A19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
+      <c r="I19" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="68">
+      <c r="A20" s="64">
         <v>300</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="57">
         <v>200</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="60" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="37">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="35">
         <v>0.01</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="57">
         <v>200</v>
       </c>
-      <c r="J20" s="80">
+      <c r="J20" s="76">
         <f>0.01*I20</f>
         <v>2</v>
       </c>
-      <c r="K20" s="79">
+      <c r="K20" s="75">
         <f>J20/J24</f>
         <v>0.2089864158829676</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="33"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -17249,321 +18902,621 @@
       <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="68">
+      <c r="A21" s="64">
         <v>28</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="57">
         <v>33</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="37">
+      <c r="D21" s="28"/>
+      <c r="E21" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="35">
         <v>0.09</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="57">
         <v>33</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="58">
         <f>0.09*I21</f>
         <v>2.9699999999999998</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="75">
         <f>J21/J24</f>
         <v>0.31034482758620685</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="33"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="28"/>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="68">
+      <c r="A22" s="64">
         <v>9</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="57">
         <v>9</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="60" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="37">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="35">
         <v>0.4</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="57">
         <v>9</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="58">
         <f>0.4*I22</f>
         <v>3.6</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="35">
         <f>J22/J24</f>
         <v>0.37617554858934171</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="33"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="31"/>
     </row>
     <row r="23" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="68">
+      <c r="A23" s="64">
         <v>3</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="57">
         <v>2</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="60" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="37">
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="35">
         <v>0.5</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="57">
         <v>2</v>
       </c>
-      <c r="J23" s="80">
+      <c r="J23" s="76">
         <f>0.5*I23</f>
         <v>1</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="35">
         <f>J23/J24</f>
         <v>0.1044932079414838</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="33"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="31"/>
     </row>
     <row r="24" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="61">
+      <c r="A24" s="57">
         <v>10.6</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="57">
         <v>9.6</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="81">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="77">
         <f>SUM(J20:J23)</f>
         <v>9.57</v>
       </c>
-      <c r="K24" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
+      <c r="K24" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
     </row>
     <row r="25" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
+      <c r="A25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
     </row>
     <row r="26" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
+      <c r="A26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
     </row>
     <row r="27" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
+      <c r="A27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
     </row>
     <row r="29" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-    </row>
-    <row r="30" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-    </row>
-    <row r="31" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-    </row>
-    <row r="32" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-    </row>
-    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-    </row>
-    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-    </row>
-    <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+    </row>
+    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+    </row>
+    <row r="63" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+    </row>
+    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+    </row>
+    <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+    </row>
+    <row r="66" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="81">
+        <f>0.5*3.8+0.4*6.4+0.1*15.6</f>
+        <v>6.0200000000000014</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" s="2">
+        <f>12*53</f>
+        <v>636</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="G90" s="2">
+        <f>12*123</f>
+        <v>1476</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="G91" s="2">
+        <f>12*520</f>
+        <v>6240</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" s="82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" t="s">
+        <v>165</v>
+      </c>
+      <c r="C128">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>167</v>
+      </c>
+      <c r="C130">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>168</v>
+      </c>
+      <c r="C131">
+        <v>0.03</v>
+      </c>
+      <c r="D131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" s="82" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="90"/>
+    </row>
+    <row r="135" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135" s="101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="90" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{C463693E-52FA-A64F-A578-CE86F52E913C}"/>
+    <hyperlink ref="E27" r:id="rId2" xr:uid="{8BB4E278-B5D3-2C4F-8066-77AD65ADE27A}"/>
+    <hyperlink ref="E26" r:id="rId3" xr:uid="{10D48836-B215-384C-B500-B5A01F0440AD}"/>
+    <hyperlink ref="C87" r:id="rId4" xr:uid="{87F5059A-B165-2049-84ED-DAAC90E4D53C}"/>
+    <hyperlink ref="A97" r:id="rId5" display="https://t.co/FAhm1DrOCy" xr:uid="{2A8A17AA-E1AA-B041-BE2E-A2086FFC8066}"/>
+    <hyperlink ref="A99" r:id="rId6" display="https://twitter.com/i_fly_Bernard/status/1554131430795616259?ref_src=twsrc%5Etfw" xr:uid="{D2648413-FFBB-484F-8A8A-2BF0DDE89527}"/>
+    <hyperlink ref="D123" r:id="rId7" xr:uid="{6E306824-41CA-1B43-912E-6446CA959254}"/>
+    <hyperlink ref="A137" r:id="rId8" display="https://abc-transitionbascarbone.fr/infographie-les-services-societaux-un-poids-lourd-dans-lempreinte-carbone-de-chaque-citoyen-francais/" xr:uid="{BDC2918F-71A7-6E47-9E06-133AE8D9E774}"/>
+    <hyperlink ref="A149" r:id="rId9" display="https://greenly.earth/fr-fr/blog/actualites-ecologie/nos-banques-financent-elles-reellement-la-crise-climatique" xr:uid="{D74614EA-88D1-4A46-A2C2-22A78DA842FC}"/>
+    <hyperlink ref="D133" r:id="rId10" xr:uid="{7673D5AA-880B-764E-B1EF-5FD112F0E62A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -17572,14 +19525,14 @@
   <dimension ref="A2:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A4" sqref="A4:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
+    <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -17632,23 +19585,23 @@
       <c r="X3" s="9"/>
     </row>
     <row r="4" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+      <c r="A4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -17660,29 +19613,29 @@
       <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="30" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -17694,22 +19647,22 @@
       <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
+      <c r="A6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -17721,29 +19674,29 @@
       <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="30" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
@@ -17751,22 +19704,22 @@
       <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="A8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -17774,29 +19727,29 @@
       <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="30" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -17804,22 +19757,22 @@
       <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
+      <c r="A10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -17827,29 +19780,29 @@
       <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="30" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -17857,22 +19810,22 @@
       <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
+      <c r="A12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -17880,29 +19833,29 @@
       <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="30" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -17911,26 +19864,26 @@
       <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
+      <c r="A14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="55" t="s">
-        <v>73</v>
+      <c r="Q14" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
@@ -17941,30 +19894,30 @@
       <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="31">
         <f>Data!E4</f>
         <v>2023</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <v>2030</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="31">
         <v>2040</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="31">
         <v>2050</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -17976,25 +19929,25 @@
       <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -18005,23 +19958,23 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
+      <c r="A17" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -18029,23 +19982,23 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
+      <c r="A18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -18053,23 +20006,23 @@
       <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
+      <c r="A19" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -18077,21 +20030,21 @@
       <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -18099,55 +20052,55 @@
       <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CO2.xlsx
+++ b/CO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/v.chapin/Library/CloudStorage/Dropbox/HappyFew_1.0Go/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A407BB88-2E7D-EE4D-BD44-39FF1DE83156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C48D6AA-3F83-8046-A9D8-40BB4E2795C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17260" yWindow="-22380" windowWidth="23160" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="28" r:id="rId1"/>
@@ -1086,7 +1086,27 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Fioul, Gaz, Electricité, PAC, Bois</t>
+          <t xml:space="preserve">Type de chauffage : Fioul, Gaz, Electricité, PAC, Bois
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Facteur d'émission : 0.32, 0.25, 0.09, 0.03, 0.03 kgCO2/kWh
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Source : bilan CO2 MicMac ADEME, Jancovici</t>
         </r>
       </text>
     </comment>
@@ -1354,7 +1374,47 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Facteur multiplicatif de déconsommation</t>
+          <t xml:space="preserve">Facteur multiplicatif de déconsommation
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 = consommation normale actuelle
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.75 = j'ai réduis ma consommation de 25%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0.50 = j'ai réduis ma consommation de 50%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.25 ...</t>
         </r>
       </text>
     </comment>
@@ -4663,7 +4723,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="205">
   <si>
     <t>TCO2/an</t>
   </si>
@@ -5612,6 +5672,57 @@
   </si>
   <si>
     <t>https://bonpote.com/empreinte-carbone-des-services-publics/</t>
+  </si>
+  <si>
+    <t>Gaz</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Nos gestes climat</t>
+  </si>
+  <si>
+    <t>https://nosgestesclimat.fr/</t>
+  </si>
+  <si>
+    <t>http://avenirclimatique.org/micmac/index.php</t>
+  </si>
+  <si>
+    <t>Bilan CO2  - Avelnir Climatique</t>
+  </si>
+  <si>
+    <t>dT</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>kWh/j</t>
+  </si>
+  <si>
+    <t>Pompe</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>Piscine individuelle chauffée</t>
+  </si>
+  <si>
+    <t>jours/an</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -7400,7 +7511,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7639,6 +7750,9 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1361">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -9340,16 +9454,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.4495661686472554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5825486503452605E-2</c:v>
+                  <c:v>0.1608098185251233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75329566854990582</c:v>
+                  <c:v>0.14985538954908514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20087884494664157</c:v>
+                  <c:v>0.23976862327853624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9701,16 +9815,16 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.9649999999999999</c:v>
+                  <c:v>6.6730999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8473396737500005</c:v>
+                  <c:v>10.275339673749999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3989925363506845</c:v>
+                  <c:v>5.3989925363506845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1305505435879288</c:v>
+                  <c:v>5.1305505435879288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10149,7 +10263,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -10218,16 +10332,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10290,7 +10404,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.36499999999999999</c:v>
+                  <c:v>1.0731000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.73</c:v>
@@ -10362,16 +10476,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10955,16 +11069,16 @@
                 <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.09</c:v>
+                  <c:v>12000.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09</c:v>
+                  <c:v>29200.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>12000.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>12000.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13678,14 +13792,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13700,7 +13814,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14224000" y="1092200"/>
+          <a:off x="14287500" y="1054100"/>
           <a:ext cx="5626100" cy="2895600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14665,10 +14779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FF7EAA-5CC9-6947-BEFB-803634551652}">
-  <dimension ref="A2:W63"/>
+  <dimension ref="A2:Z63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14875,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>7</v>
@@ -15099,7 +15213,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
@@ -15125,33 +15239,42 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>B18*G18/1000</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" s="11">
         <f>C18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+        <v>12000</v>
+      </c>
+      <c r="C18" s="18">
+        <v>40</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G18" s="11">
-        <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
-        <v>0.3</v>
+        <f>IF(E18="Fioul",0.32,IF(E18="Electricité",0.09,IF(E18="PAC",0.03,IF(E18="Gaz",0.25,IF(E18="Bois",0.03,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
+        <v>0.25</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>112</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q18" s="90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -15162,8 +15285,35 @@
       <c r="H19" s="12"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="R19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -15175,8 +15325,42 @@
       <c r="H20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R20" s="102">
+        <v>10</v>
+      </c>
+      <c r="S20" s="102">
+        <v>5</v>
+      </c>
+      <c r="T20" s="102">
+        <v>2</v>
+      </c>
+      <c r="U20" s="1">
+        <f>T20*S20*R20</f>
+        <v>100</v>
+      </c>
+      <c r="V20" s="102">
+        <v>10</v>
+      </c>
+      <c r="W20" s="1">
+        <f>U20*V20*4180</f>
+        <v>4180000</v>
+      </c>
+      <c r="X20" s="73">
+        <f>W20/3600/1000</f>
+        <v>1.161111111111111</v>
+      </c>
+      <c r="Y20" s="102">
+        <v>180</v>
+      </c>
+      <c r="Z20" s="81">
+        <f>Y20*X20</f>
+        <v>208.99999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
@@ -15199,28 +15383,52 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q21" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="R21" s="102">
+        <v>400</v>
+      </c>
+      <c r="S21" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" s="73">
+        <f>R21*24/1000</f>
+        <v>9.6</v>
+      </c>
+      <c r="Y21" s="102">
+        <v>180</v>
+      </c>
+      <c r="Z21" s="81">
+        <f>X21*Y21</f>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <f>F22*730*(C22*5.5+D22*1.6+E22*0.5)/1000</f>
-        <v>0.36499999999999999</v>
+        <v>1.0731000000000002</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="79">
+        <v>0.4</v>
+      </c>
       <c r="E22" s="80">
         <f>1-D22-C22</f>
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F22" s="48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="11"/>
@@ -15230,7 +15438,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="71" t="s">
         <v>89</v>
       </c>
@@ -15244,13 +15452,13 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" s="25">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>88</v>
@@ -15267,7 +15475,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
@@ -15277,9 +15485,8 @@
       <c r="G26" s="9"/>
       <c r="H26" s="12"/>
       <c r="I26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="70" t="s">
         <v>36</v>
       </c>
@@ -15291,9 +15498,8 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>1.6</v>
       </c>
@@ -15311,12 +15517,12 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>91</v>
       </c>
@@ -15332,7 +15538,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="91">
         <f>SUM(A6:A14)</f>
         <v>0</v>
@@ -15355,17 +15561,17 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="92">
         <f>A18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="35">
         <f>A32/A36</f>
-        <v>0</v>
+        <v>0.4495661686472554</v>
       </c>
       <c r="D32" s="68" t="s">
         <v>17</v>
@@ -15380,14 +15586,14 @@
     <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="92">
         <f>A22</f>
-        <v>0.36499999999999999</v>
+        <v>1.0731000000000002</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="35">
         <f>A33/A36</f>
-        <v>4.5825486503452605E-2</v>
+        <v>0.1608098185251233</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>18</v>
@@ -15401,14 +15607,14 @@
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <f>A25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="35">
         <f>A34/A36</f>
-        <v>0.75329566854990582</v>
+        <v>0.14985538954908514</v>
       </c>
       <c r="D34" s="69" t="s">
         <v>16</v>
@@ -15429,7 +15635,7 @@
       </c>
       <c r="C35" s="35">
         <f>A35/A36</f>
-        <v>0.20087884494664157</v>
+        <v>0.23976862327853624</v>
       </c>
       <c r="D35" s="70" t="s">
         <v>19</v>
@@ -15443,7 +15649,7 @@
     <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <f>SUM(A31:A35)</f>
-        <v>7.9649999999999999</v>
+        <v>6.6730999999999998</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>0</v>
@@ -15501,7 +15707,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15570,19 +15776,19 @@
     <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <f>C7/100*3*0.8*3/1000</f>
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="B7" s="11">
         <f>C7/100*3*10</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="C7" s="10">
         <f>E7*20000</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>22</v>
@@ -15622,19 +15828,19 @@
     <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <f>C9/100*3*0.8*3/1000</f>
-        <v>0</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="B9" s="11">
         <f>C9/100*3*10</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="C9" s="10">
         <f>E9*2000</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>24</v>
@@ -15657,17 +15863,17 @@
     <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <f>C10/100*D10*0.8*3/1000 + N10*6/L10</f>
-        <v>0</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="B10" s="11">
         <f>C10/100*D10*10</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="C10" s="18">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>7</v>
@@ -15679,11 +15885,11 @@
       <c r="H10" s="9"/>
       <c r="L10" s="73">
         <f>IF(C10=0,100,200000/C10)</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N10" s="1">
         <f>IF(C10=0,0,IF(D10=0,0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -15856,25 +16062,31 @@
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>B18*G18/1000</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" s="11">
         <f>C18*F18</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="C18" s="18">
         <f>Data!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f>Data!D18</f>
+        <v>E</v>
+      </c>
+      <c r="E18" s="18" t="str">
+        <f>Data!E18</f>
+        <v>Gaz</v>
+      </c>
       <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G18" s="11">
-        <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
-        <v>0.3</v>
+        <f>IF(E18="Fioul",0.32,IF(E18="Electricité",0.09,IF(E18="PAC",0.03,IF(E18="Gaz",0.25,IF(E18="Bois",0.03,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
+        <v>0.25</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="11"/>
@@ -15973,11 +16185,11 @@
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" s="86">
         <f>Data!B25</f>
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>88</v>
@@ -16063,14 +16275,14 @@
     <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="91">
         <f>SUM(A6:A14)</f>
-        <v>0</v>
+        <v>4.4279999999999999</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="35">
         <f>A31/A36</f>
-        <v>0</v>
+        <v>0.43093465915409446</v>
       </c>
       <c r="D31" s="52" t="s">
         <v>15</v>
@@ -16086,14 +16298,14 @@
     <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="92">
         <f>A18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="35">
         <f>A32/A36</f>
-        <v>0</v>
+        <v>0.29196115118841087</v>
       </c>
       <c r="D32" s="68" t="s">
         <v>17</v>
@@ -16115,7 +16327,7 @@
       </c>
       <c r="C33" s="35">
         <f>A33/A36</f>
-        <v>9.3025156339531248E-2</v>
+        <v>7.1043880122513309E-2</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>18</v>
@@ -16129,14 +16341,14 @@
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <f>A25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="35">
         <f>A34/A36</f>
-        <v>0.7645903260783391</v>
+        <v>9.73203837294703E-2</v>
       </c>
       <c r="D34" s="69" t="s">
         <v>16</v>
@@ -16157,7 +16369,7 @@
       </c>
       <c r="C35" s="35">
         <f>A35/A36</f>
-        <v>0.14238451758212958</v>
+        <v>0.10873992580551113</v>
       </c>
       <c r="D35" s="70" t="s">
         <v>19</v>
@@ -16171,7 +16383,7 @@
     <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <f>SUM(A31:A35)</f>
-        <v>7.8473396737500005</v>
+        <v>10.275339673749999</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>0</v>
@@ -16229,7 +16441,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16566,22 +16778,31 @@
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>B18*G18/1000</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" s="11">
         <f>C18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+        <v>12000</v>
+      </c>
+      <c r="C18" s="18">
+        <f>'2030'!C18</f>
+        <v>40</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f>'2030'!D18</f>
+        <v>E</v>
+      </c>
+      <c r="E18" s="18" t="str">
+        <f>'2030'!E18</f>
+        <v>Gaz</v>
+      </c>
       <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G18" s="11">
-        <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
-        <v>0.3</v>
+        <f>IF(E18="Fioul",0.32,IF(E18="Electricité",0.09,IF(E18="PAC",0.03,IF(E18="Gaz",0.25,IF(E18="Bois",0.03,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
+        <v>0.25</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="11"/>
@@ -16684,11 +16905,11 @@
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" s="86">
         <f>Data!B25</f>
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>88</v>
@@ -16797,14 +17018,14 @@
     <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="92">
         <f>A18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="35">
         <f>A32/A36</f>
-        <v>0</v>
+        <v>0.5556592234201857</v>
       </c>
       <c r="D32" s="68" t="s">
         <v>17</v>
@@ -16826,7 +17047,7 @@
       </c>
       <c r="C33" s="35">
         <f>A33/A36</f>
-        <v>9.8662080872979105E-2</v>
+        <v>0.13521041103224518</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>18</v>
@@ -16840,14 +17061,14 @@
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <f>A25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="35">
         <f>A34/A36</f>
-        <v>0.8109212126546228</v>
+        <v>0.1852197411400619</v>
       </c>
       <c r="D34" s="69" t="s">
         <v>16</v>
@@ -16868,7 +17089,7 @@
       </c>
       <c r="C35" s="35">
         <f>A35/A36</f>
-        <v>9.0416706472398051E-2</v>
+        <v>0.12391062440750709</v>
       </c>
       <c r="D35" s="70" t="s">
         <v>19</v>
@@ -16882,7 +17103,7 @@
     <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <f>SUM(A31:A35)</f>
-        <v>7.3989925363506845</v>
+        <v>5.3989925363506845</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>0</v>
@@ -16940,7 +17161,7 @@
   <dimension ref="A2:N63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17278,22 +17499,31 @@
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <f>B18*G18/1000</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" s="11">
         <f>C18*F18</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+        <v>12000</v>
+      </c>
+      <c r="C18" s="18">
+        <f>'2040'!C18</f>
+        <v>40</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f>'2040'!D18</f>
+        <v>E</v>
+      </c>
+      <c r="E18" s="18" t="str">
+        <f>'2040'!E18</f>
+        <v>Gaz</v>
+      </c>
       <c r="F18" s="11">
         <f>IF(D18="G",600,IF(D18="F",400,IF(D18="E",300,IF(D18="D",200,IF(D18="C",120,IF(D18="B",70,IF(D18="A",35,200)))))))</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G18" s="11">
-        <f>IF(E18="Fioul",0.3,IF(E18="Electricité",0.08,IF(E18="PAC",0.03,IF(E18="Gaz",0.3,IF(E18="Bois",0.3,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
-        <v>0.3</v>
+        <f>IF(E18="Fioul",0.32,IF(E18="Electricité",0.09,IF(E18="PAC",0.03,IF(E18="Gaz",0.25,IF(E18="Bois",0.03,IF(E18="B",70,IF(E18="A",35,0.3)))))))</f>
+        <v>0.25</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="11"/>
@@ -17396,11 +17626,11 @@
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f>IF(B25=1%,80,IF(B25=9%,6,IF(B25=40%,2,IF(B25=50%,1,2))))*D25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B25" s="86">
         <f>Data!B25</f>
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>88</v>
@@ -17503,14 +17733,14 @@
     <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="92">
         <f>A18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="35">
         <f>A32/A36</f>
-        <v>0</v>
+        <v>0.58473256905135584</v>
       </c>
       <c r="D32" s="68" t="s">
         <v>17</v>
@@ -17532,7 +17762,7 @@
       </c>
       <c r="C33" s="35">
         <f>A33/A36</f>
-        <v>0.10237638672324463</v>
+        <v>0.14228492513582994</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>18</v>
@@ -17546,14 +17776,14 @@
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <f>A25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="35">
         <f>A34/A36</f>
-        <v>0.84144975388968191</v>
+        <v>0.19491085635045197</v>
       </c>
       <c r="D34" s="69" t="s">
         <v>16</v>
@@ -17574,7 +17804,7 @@
       </c>
       <c r="C35" s="35">
         <f>A35/A36</f>
-        <v>5.6173859387073435E-2</v>
+        <v>7.8071649462362155E-2</v>
       </c>
       <c r="D35" s="70" t="s">
         <v>19</v>
@@ -17588,7 +17818,7 @@
     <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <f>SUM(A31:A35)</f>
-        <v>7.1305505435879288</v>
+        <v>5.1305505435879288</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>0</v>
@@ -17702,7 +17932,7 @@
       </c>
       <c r="B5" s="50">
         <f>SUM('2030'!A6:A14)</f>
-        <v>0</v>
+        <v>4.4279999999999999</v>
       </c>
       <c r="C5" s="50">
         <f>SUM('2040'!A6:A14)</f>
@@ -17722,19 +17952,19 @@
     <row r="6" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50">
         <f>Data!A18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="50">
         <f>'2030'!A18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="50">
         <f>'2040'!A18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="50">
         <f>'2050'!A18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="72" t="s">
         <v>17</v>
@@ -17747,7 +17977,7 @@
     <row r="7" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>Data!A22</f>
-        <v>0.36499999999999999</v>
+        <v>1.0731000000000002</v>
       </c>
       <c r="B7" s="50">
         <f>'2030'!A22</f>
@@ -17771,19 +18001,19 @@
     <row r="8" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50">
         <f>Data!A25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="50">
         <f>'2030'!A25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" s="50">
         <f>'2040'!A25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" s="50">
         <f>'2050'!A25</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>16</v>
@@ -17828,19 +18058,19 @@
     <row r="12" spans="1:13" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60">
         <f>SUM(A5:A9)</f>
-        <v>7.9649999999999999</v>
+        <v>6.6730999999999998</v>
       </c>
       <c r="B12" s="60">
         <f>SUM(B5:B9)</f>
-        <v>7.8473396737500005</v>
+        <v>10.275339673749999</v>
       </c>
       <c r="C12" s="60">
         <f>SUM(C5:C9)</f>
-        <v>7.3989925363506845</v>
+        <v>5.3989925363506845</v>
       </c>
       <c r="D12" s="60">
         <f>SUM(D5:D9)</f>
-        <v>7.1305505435879288</v>
+        <v>5.1305505435879288</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>0</v>
@@ -17900,19 +18130,19 @@
     <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <f>A12*1000/365</f>
-        <v>21.82191780821918</v>
+        <v>18.282465753424656</v>
       </c>
       <c r="B16" s="27">
         <f>B12*1000/365</f>
-        <v>21.499560750000001</v>
+        <v>28.151615544520546</v>
       </c>
       <c r="C16" s="27">
         <f>C12*1000/365</f>
-        <v>20.271212428358041</v>
+        <v>14.79176037356352</v>
       </c>
       <c r="D16" s="27">
         <f>D12*1000/365</f>
-        <v>19.535754913939531</v>
+        <v>14.05630285914501</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>85</v>
@@ -18014,7 +18244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78739B43-9EBE-AA49-8CCD-90D99ED61241}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -18071,7 +18301,7 @@
       </c>
       <c r="B5" s="63">
         <f>SUM('2030'!B6:B14)</f>
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="C5" s="63">
         <f>SUM('2040'!B6:B14)</f>
@@ -18091,19 +18321,19 @@
     <row r="6" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63">
         <f>Data!B18</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="B6" s="63">
         <f>'2030'!B18</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="63">
         <f>'2040'!B18</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="63">
         <f>'2050'!B18</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="72" t="s">
         <v>17</v>
@@ -18140,19 +18370,19 @@
     <row r="8" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63">
         <f>Data!B25</f>
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="B8" s="63">
         <f>'2030'!B25</f>
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="63">
         <f>'2040'!B25</f>
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="63">
         <f>'2050'!B25</f>
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>16</v>
@@ -18196,19 +18426,19 @@
     <row r="11" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <f>SUM(A5:A9)</f>
-        <v>0.09</v>
+        <v>12000.5</v>
       </c>
       <c r="B11" s="60">
         <f>SUM(B5:B9)</f>
-        <v>0.09</v>
+        <v>29200.5</v>
       </c>
       <c r="C11" s="60">
         <f>SUM(C5:C9)</f>
-        <v>0.09</v>
+        <v>12000.5</v>
       </c>
       <c r="D11" s="60">
         <f>SUM(D5:D9)</f>
-        <v>0.09</v>
+        <v>12000.5</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>1</v>
@@ -18234,19 +18464,19 @@
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <f>A11/365</f>
-        <v>2.4657534246575342E-4</v>
+        <v>32.87808219178082</v>
       </c>
       <c r="B13" s="27">
         <f>B11/365</f>
-        <v>2.4657534246575342E-4</v>
+        <v>80.001369863013693</v>
       </c>
       <c r="C13" s="27">
         <f>C11/365</f>
-        <v>2.4657534246575342E-4</v>
+        <v>32.87808219178082</v>
       </c>
       <c r="D13" s="27">
         <f>D11/365</f>
-        <v>2.4657534246575342E-4</v>
+        <v>32.87808219178082</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>86</v>
@@ -18354,10 +18584,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6018974E-1004-8F4A-AB7E-D3FAB4287A3A}">
-  <dimension ref="A2:X154"/>
+  <dimension ref="A2:X156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19328,64 +19558,58 @@
         <v>157</v>
       </c>
     </row>
+    <row r="122" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="D123" s="82" t="s">
-        <v>159</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>193</v>
+      </c>
+      <c r="D124" s="82" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>160</v>
-      </c>
-      <c r="B126" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="D126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>163</v>
-      </c>
-      <c r="C127">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D127" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B128" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C128">
-        <v>0.22700000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D128" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>166</v>
+      <c r="B129" t="s">
+        <v>163</v>
       </c>
       <c r="C129">
-        <v>0.27200000000000002</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D129" t="s">
         <v>162</v>
@@ -19393,10 +19617,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="B130" t="s">
+        <v>165</v>
       </c>
       <c r="C130">
-        <v>0.32400000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="D130" t="s">
         <v>162</v>
@@ -19404,101 +19631,123 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C131">
-        <v>0.03</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D131" t="s">
         <v>162</v>
       </c>
     </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D132" t="s">
+        <v>162</v>
+      </c>
+    </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="90" t="s">
+      <c r="A133" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133">
+        <v>0.03</v>
+      </c>
+      <c r="D133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" t="s">
         <v>186</v>
       </c>
-      <c r="D133" s="82" t="s">
+      <c r="D135" s="82" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="90"/>
-    </row>
-    <row r="135" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A135" s="101" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="90"/>
+    </row>
+    <row r="137" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A137" s="101" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="82" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="82" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="90" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="90" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="90" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+    <row r="147" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="82" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="82" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="90" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="90" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="90" t="s">
         <v>184</v>
       </c>
     </row>
@@ -19510,13 +19759,15 @@
     <hyperlink ref="C87" r:id="rId4" xr:uid="{87F5059A-B165-2049-84ED-DAAC90E4D53C}"/>
     <hyperlink ref="A97" r:id="rId5" display="https://t.co/FAhm1DrOCy" xr:uid="{2A8A17AA-E1AA-B041-BE2E-A2086FFC8066}"/>
     <hyperlink ref="A99" r:id="rId6" display="https://twitter.com/i_fly_Bernard/status/1554131430795616259?ref_src=twsrc%5Etfw" xr:uid="{D2648413-FFBB-484F-8A8A-2BF0DDE89527}"/>
-    <hyperlink ref="D123" r:id="rId7" xr:uid="{6E306824-41CA-1B43-912E-6446CA959254}"/>
-    <hyperlink ref="A137" r:id="rId8" display="https://abc-transitionbascarbone.fr/infographie-les-services-societaux-un-poids-lourd-dans-lempreinte-carbone-de-chaque-citoyen-francais/" xr:uid="{BDC2918F-71A7-6E47-9E06-133AE8D9E774}"/>
-    <hyperlink ref="A149" r:id="rId9" display="https://greenly.earth/fr-fr/blog/actualites-ecologie/nos-banques-financent-elles-reellement-la-crise-climatique" xr:uid="{D74614EA-88D1-4A46-A2C2-22A78DA842FC}"/>
-    <hyperlink ref="D133" r:id="rId10" xr:uid="{7673D5AA-880B-764E-B1EF-5FD112F0E62A}"/>
+    <hyperlink ref="D125" r:id="rId7" xr:uid="{6E306824-41CA-1B43-912E-6446CA959254}"/>
+    <hyperlink ref="A139" r:id="rId8" display="https://abc-transitionbascarbone.fr/infographie-les-services-societaux-un-poids-lourd-dans-lempreinte-carbone-de-chaque-citoyen-francais/" xr:uid="{BDC2918F-71A7-6E47-9E06-133AE8D9E774}"/>
+    <hyperlink ref="A151" r:id="rId9" display="https://greenly.earth/fr-fr/blog/actualites-ecologie/nos-banques-financent-elles-reellement-la-crise-climatique" xr:uid="{D74614EA-88D1-4A46-A2C2-22A78DA842FC}"/>
+    <hyperlink ref="D135" r:id="rId10" xr:uid="{7673D5AA-880B-764E-B1EF-5FD112F0E62A}"/>
+    <hyperlink ref="D123" r:id="rId11" xr:uid="{2B5D9316-8CA6-884D-9F3A-C3C65D2A061A}"/>
+    <hyperlink ref="D124" r:id="rId12" xr:uid="{A69F96AA-C0AF-FA42-B481-EB0FA991BAE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
